--- a/mouth.xlsx
+++ b/mouth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="766" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="766" visibility="visible" windowHeight="10425" windowWidth="19425" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
     <sheet name="项目报表（10月）" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,37 +13,37 @@
     <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="A级" localSheetId="1">#REF!</definedName>
-    <definedName name="A级" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="A级">#REF!</definedName>
+    <definedName localSheetId="2" name="A级">#REF!</definedName>
     <definedName name="A级">#REF!</definedName>
-    <definedName name="B级" localSheetId="1">#REF!</definedName>
-    <definedName name="B级" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="B级">#REF!</definedName>
+    <definedName localSheetId="2" name="B级">#REF!</definedName>
     <definedName name="B级">#REF!</definedName>
-    <definedName name="C级" localSheetId="1">#REF!</definedName>
-    <definedName name="C级" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="C级">#REF!</definedName>
+    <definedName localSheetId="2" name="C级">#REF!</definedName>
     <definedName name="C级">#REF!</definedName>
-    <definedName name="S级" localSheetId="1">#REF!</definedName>
-    <definedName name="S级" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="S级">#REF!</definedName>
+    <definedName localSheetId="2" name="S级">#REF!</definedName>
     <definedName name="S级">#REF!</definedName>
     <definedName name="艾艾">#REF!</definedName>
-    <definedName name="等待签约" localSheetId="1">#REF!</definedName>
-    <definedName name="等待签约" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="等待签约">#REF!</definedName>
+    <definedName localSheetId="2" name="等待签约">#REF!</definedName>
     <definedName name="等待签约">#REF!</definedName>
-    <definedName name="方案报价或招投标" localSheetId="1">#REF!</definedName>
-    <definedName name="方案报价或招投标" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="方案报价或招投标">#REF!</definedName>
+    <definedName localSheetId="2" name="方案报价或招投标">#REF!</definedName>
     <definedName name="方案报价或招投标">#REF!</definedName>
-    <definedName name="客户级别" localSheetId="1">#REF!</definedName>
-    <definedName name="客户级别" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="客户级别">#REF!</definedName>
+    <definedName localSheetId="2" name="客户级别">#REF!</definedName>
     <definedName name="客户级别">#REF!</definedName>
-    <definedName name="商务谈判" localSheetId="1">#REF!</definedName>
-    <definedName name="商务谈判" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="商务谈判">#REF!</definedName>
+    <definedName localSheetId="2" name="商务谈判">#REF!</definedName>
     <definedName name="商务谈判">#REF!</definedName>
     <definedName name="石山">#REF!</definedName>
-    <definedName name="线索阶段" localSheetId="1">#REF!</definedName>
-    <definedName name="线索阶段" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="线索阶段">#REF!</definedName>
+    <definedName localSheetId="2" name="线索阶段">#REF!</definedName>
     <definedName name="线索阶段">#REF!</definedName>
-    <definedName name="已拜访KP" localSheetId="1">#REF!</definedName>
-    <definedName name="已拜访KP" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="1" name="已拜访KP">#REF!</definedName>
+    <definedName localSheetId="2" name="已拜访KP">#REF!</definedName>
     <definedName name="已拜访KP">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt formatCode="0.00_);[Red]\(0.00\)" numFmtId="164"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -138,7 +138,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -163,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -290,155 +296,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="52">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <fill>
-        <gradientFill type="linear" degree="90">
+        <gradientFill degree="90" type="linear">
           <stop position="0">
             <color theme="0"/>
           </stop>
@@ -481,16 +543,16 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="数据透视表样式 1" table="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
+  <tableStyles count="5" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="1" name="数据透视表样式 1" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
     </tableStyle>
-    <tableStyle name="数据透视表样式 2" table="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="0"/>
+    <tableStyle count="1" name="数据透视表样式 2" table="0">
+      <tableStyleElement dxfId="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle name="数据透视表样式 3" table="0" count="0"/>
-    <tableStyle name="数据透视表样式 4" table="0" count="0"/>
-    <tableStyle name="数据透视表样式 5" table="0" count="0"/>
+    <tableStyle count="0" name="数据透视表样式 3" table="0"/>
+    <tableStyle count="0" name="数据透视表样式 4" table="0"/>
+    <tableStyle count="0" name="数据透视表样式 5" table="0"/>
   </tableStyles>
   <colors>
     <indexedColors>
@@ -569,576 +631,576 @@
     <author>小柏</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AF4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AF6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AF7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AF8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AF9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AF10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AF11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AF15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AF16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AF17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AF18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AF19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AF20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AF21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AF24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AF25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AF26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AF27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AF28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AF29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AF30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AF31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AF31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C34" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C35" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C36" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C37" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C38" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C39" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C40" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C41" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C44" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C45" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C46" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C47" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C48" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C49" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C50" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C51" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C54" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C55" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C56" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C57" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C58" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C59" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C60" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C61" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C64" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C65" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C66" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C67" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C68" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C69" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C70" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C71" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C74" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C75" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C75" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C76" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C76" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C77" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C77" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C78" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C79" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C79" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C80" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C81" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C81" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C84" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C84" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C85" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C85" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C86" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C87" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C87" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C88" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C88" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C89" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C89" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C90" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C90" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C91" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C91" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C94" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C94" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C95" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C95" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C96" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C96" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C97" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C98" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C99" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C99" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C100" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C100" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C101" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C101" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C104" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C105" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C105" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C106" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C106" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C107" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C107" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C108" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C108" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C109" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C109" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C110" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C111" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C111" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
@@ -1153,412 +1215,412 @@
     <author>小柏</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AE4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AE5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AE6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AE7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AE8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AE9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AE10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AE11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AE14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AE15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AE16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AE17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AE18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AE19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AE20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AE21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AE24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AE25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AE26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AE27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AE28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AE29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AE30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AE31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AE31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C34" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C35" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C36" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C37" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C38" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C39" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C40" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C41" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C44" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C45" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C46" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C47" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C48" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C49" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C50" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C51" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C54" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C55" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C56" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C57" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C58" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C59" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C60" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C61" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C64" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C65" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C66" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C67" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C68" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C69" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C70" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C71" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
@@ -1573,412 +1635,412 @@
     <author>小柏</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AJ4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AJ5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AJ6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AJ7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AJ8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AJ9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AJ10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AJ11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AJ14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AJ15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AJ16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AJ17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AJ18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AJ19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AJ20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AJ21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="AJ24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="AJ25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="AJ26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="AJ27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="AJ28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="AJ29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AJ30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="AJ31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AJ31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C34" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C35" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C36" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C37" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C38" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C39" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C40" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C41" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C44" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C45" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C46" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C47" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C48" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C49" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C50" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C51" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C54" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C55" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C56" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C57" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C58" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C59" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C60" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C61" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C64" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C65" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C66" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C67" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C68" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C69" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C70" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C71" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
@@ -1993,43 +2055,43 @@
     <author>小柏</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
@@ -2044,207 +2106,207 @@
     <author>小柏</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C4" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C5" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C6" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C7" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C8" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C9" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C10" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C11" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C14" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C15" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C16" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C17" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C18" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C19" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C20" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C21" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C24" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C25" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C26" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C27" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C28" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C29" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C30" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C31" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C34" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C35" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C36" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C37" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C38" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C39" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C40" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C41" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C44" shapeId="0">
       <text>
         <t>数据来源原始数据所有录入的人员，可根据职位计算人数</t>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C45" shapeId="0">
       <text>
         <t>数据来源前表简历是否通过一列</t>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C46" shapeId="0">
       <text>
         <t>数据来源是否参加一面</t>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C47" shapeId="0">
       <text>
         <t>数据来源是否参加终面</t>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C48" shapeId="0">
       <text>
         <t>数据来源是否offer</t>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C49" shapeId="0">
       <text>
         <t xml:space="preserve">数据来源是否入职
 </t>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C50" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C51" shapeId="0">
       <text>
         <t>需要人工输入</t>
       </text>
@@ -2517,35 +2579,35 @@
   </sheetPr>
   <dimension ref="A1:AL114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:AG62"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="D41" xSplit="3" ySplit="2"/>
+      <selection activeCell="D1" pane="topRight" sqref="D1"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1:AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" style="40" min="2" max="2"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="3" max="3"/>
-    <col outlineLevel="1" width="5.125" customWidth="1" style="40" min="4" max="9"/>
-    <col width="8.125" bestFit="1" customWidth="1" style="40" min="10" max="10"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="11" max="15"/>
-    <col width="5.125" customWidth="1" style="40" min="16" max="16"/>
-    <col outlineLevel="1" width="5.125" customWidth="1" style="40" min="17" max="21"/>
-    <col width="5.125" customWidth="1" style="40" min="22" max="22"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="23" max="25"/>
-    <col outlineLevel="1" width="6.125" customWidth="1" style="40" min="26" max="26"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="27" max="27"/>
-    <col width="5.125" customWidth="1" style="40" min="28" max="28"/>
-    <col width="8.375" customWidth="1" style="40" min="29" max="29"/>
-    <col width="6.5" customWidth="1" style="40" min="30" max="30"/>
-    <col width="9.25" bestFit="1" customWidth="1" style="40" min="31" max="31"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="32" max="32"/>
-    <col width="6.5" customWidth="1" style="40" min="34" max="38"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="40" width="13"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="40" width="11.125"/>
+    <col customWidth="1" max="9" min="4" outlineLevel="1" style="40" width="5.125"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="40" width="8.125"/>
+    <col customWidth="1" max="15" min="11" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="16" min="16" style="40" width="5.125"/>
+    <col customWidth="1" max="21" min="17" outlineLevel="1" style="40" width="5.125"/>
+    <col customWidth="1" max="22" min="22" style="40" width="5.125"/>
+    <col customWidth="1" max="25" min="23" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="1" style="40" width="6.125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="28" min="28" style="40" width="5.125"/>
+    <col customWidth="1" max="29" min="29" style="40" width="8.375"/>
+    <col customWidth="1" max="30" min="30" style="40" width="6.5"/>
+    <col bestFit="1" customWidth="1" max="31" min="31" style="40" width="9.25"/>
+    <col bestFit="1" customWidth="1" max="32" min="32" style="40" width="11.125"/>
+    <col customWidth="1" max="38" min="34" style="40" width="6.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="1" s="40">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>项目名称</t>
@@ -2623,7 +2685,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="2" s="40">
       <c r="A2" s="43" t="n"/>
       <c r="B2" s="43" t="n"/>
       <c r="C2" s="43" t="n"/>
@@ -2730,7 +2792,7 @@
       <c r="AJ2" s="3" t="n"/>
       <c r="AL2" s="3" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="3" s="40">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -2819,7 +2881,7 @@
       </c>
       <c r="AG3" s="12" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="4" s="40">
       <c r="A4" s="44" t="n"/>
       <c r="B4" s="44" t="n"/>
       <c r="C4" s="19" t="inlineStr">
@@ -2877,7 +2939,7 @@
       <c r="AG4" s="13" t="n"/>
       <c r="AI4" s="9" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="5" s="40">
       <c r="A5" s="44" t="n"/>
       <c r="B5" s="44" t="n"/>
       <c r="C5" s="19" t="inlineStr">
@@ -2934,7 +2996,7 @@
       </c>
       <c r="AG5" s="13" t="n"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="6" s="40">
       <c r="A6" s="44" t="n"/>
       <c r="B6" s="44" t="n"/>
       <c r="C6" s="8" t="inlineStr">
@@ -2991,7 +3053,7 @@
       </c>
       <c r="AG6" s="13" t="n"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="7" s="40">
       <c r="A7" s="44" t="n"/>
       <c r="B7" s="44" t="n"/>
       <c r="C7" s="19" t="inlineStr">
@@ -3048,7 +3110,7 @@
       </c>
       <c r="AG7" s="13" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="8" s="40">
       <c r="A8" s="44" t="n"/>
       <c r="B8" s="44" t="n"/>
       <c r="C8" s="19" t="inlineStr">
@@ -3105,7 +3167,7 @@
       </c>
       <c r="AG8" s="13" t="n"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="9" s="40">
       <c r="A9" s="44" t="n"/>
       <c r="B9" s="44" t="n"/>
       <c r="C9" s="8" t="inlineStr">
@@ -3162,7 +3224,7 @@
       </c>
       <c r="AG9" s="13" t="n"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="10" s="40">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="44" t="n"/>
       <c r="C10" s="19" t="inlineStr">
@@ -3219,7 +3281,7 @@
       </c>
       <c r="AG10" s="13" t="n"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="11" s="40">
       <c r="A11" s="44" t="n"/>
       <c r="B11" s="44" t="n"/>
       <c r="C11" s="19" t="inlineStr">
@@ -3276,7 +3338,7 @@
       </c>
       <c r="AG11" s="13" t="n"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="12" s="40">
       <c r="A12" s="43" t="n"/>
       <c r="B12" s="43" t="n"/>
       <c r="C12" s="8" t="inlineStr">
@@ -3333,7 +3395,7 @@
       </c>
       <c r="AG12" s="13" t="n"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="13" s="40">
       <c r="A13" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -3422,7 +3484,7 @@
       </c>
       <c r="AG13" s="12" t="n"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="14" s="40">
       <c r="A14" s="44" t="n"/>
       <c r="B14" s="44" t="n"/>
       <c r="C14" s="19" t="inlineStr">
@@ -3483,7 +3545,7 @@
       </c>
       <c r="AG14" s="13" t="n"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="15" s="40">
       <c r="A15" s="44" t="n"/>
       <c r="B15" s="44" t="n"/>
       <c r="C15" s="19" t="inlineStr">
@@ -3542,7 +3604,7 @@
       </c>
       <c r="AG15" s="13" t="n"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="16" s="40">
       <c r="A16" s="44" t="n"/>
       <c r="B16" s="44" t="n"/>
       <c r="C16" s="8" t="inlineStr">
@@ -3599,7 +3661,7 @@
       </c>
       <c r="AG16" s="13" t="n"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="17" s="40">
       <c r="A17" s="44" t="n"/>
       <c r="B17" s="44" t="n"/>
       <c r="C17" s="19" t="inlineStr">
@@ -3656,7 +3718,7 @@
       </c>
       <c r="AG17" s="13" t="n"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="18" s="40">
       <c r="A18" s="44" t="n"/>
       <c r="B18" s="44" t="n"/>
       <c r="C18" s="19" t="inlineStr">
@@ -3713,7 +3775,7 @@
       </c>
       <c r="AG18" s="13" t="n"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="19" s="40">
       <c r="A19" s="44" t="n"/>
       <c r="B19" s="44" t="n"/>
       <c r="C19" s="8" t="inlineStr">
@@ -3770,7 +3832,7 @@
       </c>
       <c r="AG19" s="13" t="n"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="20" s="40">
       <c r="A20" s="44" t="n"/>
       <c r="B20" s="44" t="n"/>
       <c r="C20" s="19" t="inlineStr">
@@ -3827,7 +3889,7 @@
       </c>
       <c r="AG20" s="13" t="n"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="21" s="40">
       <c r="A21" s="44" t="n"/>
       <c r="B21" s="44" t="n"/>
       <c r="C21" s="19" t="inlineStr">
@@ -3884,7 +3946,7 @@
       </c>
       <c r="AG21" s="13" t="n"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="22" s="40">
       <c r="A22" s="43" t="n"/>
       <c r="B22" s="43" t="n"/>
       <c r="C22" s="8" t="inlineStr">
@@ -3941,7 +4003,7 @@
       </c>
       <c r="AG22" s="13" t="n"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="23" s="40">
       <c r="A23" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -4042,7 +4104,7 @@
       </c>
       <c r="AG23" s="12" t="n"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="24" s="40">
       <c r="A24" s="44" t="n"/>
       <c r="B24" s="44" t="n"/>
       <c r="C24" s="19" t="inlineStr">
@@ -4107,7 +4169,7 @@
       </c>
       <c r="AG24" s="13" t="n"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="25" s="40">
       <c r="A25" s="44" t="n"/>
       <c r="B25" s="44" t="n"/>
       <c r="C25" s="19" t="inlineStr">
@@ -4168,7 +4230,7 @@
       </c>
       <c r="AG25" s="13" t="n"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="26" s="40">
       <c r="A26" s="44" t="n"/>
       <c r="B26" s="44" t="n"/>
       <c r="C26" s="8" t="inlineStr">
@@ -4229,7 +4291,7 @@
       </c>
       <c r="AG26" s="13" t="n"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="27" s="40">
       <c r="A27" s="44" t="n"/>
       <c r="B27" s="44" t="n"/>
       <c r="C27" s="19" t="inlineStr">
@@ -4288,7 +4350,7 @@
       </c>
       <c r="AG27" s="13" t="n"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="28" s="40">
       <c r="A28" s="44" t="n"/>
       <c r="B28" s="44" t="n"/>
       <c r="C28" s="19" t="inlineStr">
@@ -4345,7 +4407,7 @@
       </c>
       <c r="AG28" s="13" t="n"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="29" s="40">
       <c r="A29" s="44" t="n"/>
       <c r="B29" s="44" t="n"/>
       <c r="C29" s="8" t="inlineStr">
@@ -4402,7 +4464,7 @@
       </c>
       <c r="AG29" s="13" t="n"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="30" s="40">
       <c r="A30" s="44" t="n"/>
       <c r="B30" s="44" t="n"/>
       <c r="C30" s="19" t="inlineStr">
@@ -4459,7 +4521,7 @@
       </c>
       <c r="AG30" s="13" t="n"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="31" s="40">
       <c r="A31" s="44" t="n"/>
       <c r="B31" s="44" t="n"/>
       <c r="C31" s="19" t="inlineStr">
@@ -4516,7 +4578,7 @@
       </c>
       <c r="AG31" s="13" t="n"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="32" s="40">
       <c r="A32" s="43" t="n"/>
       <c r="B32" s="43" t="n"/>
       <c r="C32" s="8" t="inlineStr">
@@ -4573,7 +4635,7 @@
       </c>
       <c r="AG32" s="13" t="n"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="33" s="40">
       <c r="A33" s="19" t="inlineStr">
         <is>
           <t>洋葱学院</t>
@@ -4663,7 +4725,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="34" s="40">
       <c r="A34" s="44" t="n"/>
       <c r="B34" s="44" t="n"/>
       <c r="C34" s="19" t="inlineStr">
@@ -4723,7 +4785,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="35" s="40">
       <c r="A35" s="44" t="n"/>
       <c r="B35" s="44" t="n"/>
       <c r="C35" s="19" t="inlineStr">
@@ -4773,7 +4835,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="36" s="40">
       <c r="A36" s="44" t="n"/>
       <c r="B36" s="44" t="n"/>
       <c r="C36" s="8" t="inlineStr">
@@ -4827,7 +4889,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="37" s="40">
       <c r="A37" s="44" t="n"/>
       <c r="B37" s="44" t="n"/>
       <c r="C37" s="19" t="inlineStr">
@@ -4877,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="38" s="40">
       <c r="A38" s="44" t="n"/>
       <c r="B38" s="44" t="n"/>
       <c r="C38" s="19" t="inlineStr">
@@ -4929,7 +4991,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="39" s="40">
       <c r="A39" s="44" t="n"/>
       <c r="B39" s="44" t="n"/>
       <c r="C39" s="8" t="inlineStr">
@@ -4979,7 +5041,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="40" s="40">
       <c r="A40" s="44" t="n"/>
       <c r="B40" s="44" t="n"/>
       <c r="C40" s="19" t="inlineStr">
@@ -5029,7 +5091,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="41" s="40">
       <c r="A41" s="44" t="n"/>
       <c r="B41" s="44" t="n"/>
       <c r="C41" s="19" t="inlineStr">
@@ -5079,7 +5141,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="42" s="40">
       <c r="A42" s="43" t="n"/>
       <c r="B42" s="43" t="n"/>
       <c r="C42" s="8" t="inlineStr">
@@ -5129,7 +5191,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="43" s="40">
       <c r="A43" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -5207,7 +5269,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="44" s="40">
       <c r="A44" s="44" t="n"/>
       <c r="B44" s="44" t="n"/>
       <c r="C44" s="19" t="inlineStr">
@@ -5257,7 +5319,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="45" s="40">
       <c r="A45" s="44" t="n"/>
       <c r="B45" s="44" t="n"/>
       <c r="C45" s="19" t="inlineStr">
@@ -5307,7 +5369,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="46" s="40">
       <c r="A46" s="44" t="n"/>
       <c r="B46" s="44" t="n"/>
       <c r="C46" s="8" t="inlineStr">
@@ -5357,7 +5419,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="47" s="40">
       <c r="A47" s="44" t="n"/>
       <c r="B47" s="44" t="n"/>
       <c r="C47" s="19" t="inlineStr">
@@ -5407,7 +5469,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="48" s="40">
       <c r="A48" s="44" t="n"/>
       <c r="B48" s="44" t="n"/>
       <c r="C48" s="19" t="inlineStr">
@@ -5457,7 +5519,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="49" s="40">
       <c r="A49" s="44" t="n"/>
       <c r="B49" s="44" t="n"/>
       <c r="C49" s="8" t="inlineStr">
@@ -5507,7 +5569,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="50" s="40">
       <c r="A50" s="44" t="n"/>
       <c r="B50" s="44" t="n"/>
       <c r="C50" s="19" t="inlineStr">
@@ -5557,7 +5619,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="51" s="40">
       <c r="A51" s="44" t="n"/>
       <c r="B51" s="44" t="n"/>
       <c r="C51" s="19" t="inlineStr">
@@ -5607,7 +5669,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="52" s="40">
       <c r="A52" s="43" t="n"/>
       <c r="B52" s="43" t="n"/>
       <c r="C52" s="8" t="inlineStr">
@@ -5657,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="53" s="40">
       <c r="A53" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -5735,7 +5797,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="54" s="40">
       <c r="A54" s="44" t="n"/>
       <c r="B54" s="44" t="n"/>
       <c r="C54" s="19" t="inlineStr">
@@ -5785,7 +5847,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="55" s="40">
       <c r="A55" s="44" t="n"/>
       <c r="B55" s="44" t="n"/>
       <c r="C55" s="19" t="inlineStr">
@@ -5835,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="56" s="40">
       <c r="A56" s="44" t="n"/>
       <c r="B56" s="44" t="n"/>
       <c r="C56" s="8" t="inlineStr">
@@ -5885,7 +5947,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="57" s="40">
       <c r="A57" s="44" t="n"/>
       <c r="B57" s="44" t="n"/>
       <c r="C57" s="19" t="inlineStr">
@@ -5935,7 +5997,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="58" s="40">
       <c r="A58" s="44" t="n"/>
       <c r="B58" s="44" t="n"/>
       <c r="C58" s="19" t="inlineStr">
@@ -5985,7 +6047,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="59" s="40">
       <c r="A59" s="44" t="n"/>
       <c r="B59" s="44" t="n"/>
       <c r="C59" s="8" t="inlineStr">
@@ -6035,7 +6097,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="60" s="40">
       <c r="A60" s="44" t="n"/>
       <c r="B60" s="44" t="n"/>
       <c r="C60" s="19" t="inlineStr">
@@ -6085,7 +6147,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="61" s="40">
       <c r="A61" s="44" t="n"/>
       <c r="B61" s="44" t="n"/>
       <c r="C61" s="19" t="inlineStr">
@@ -6135,7 +6197,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="62" s="40">
       <c r="A62" s="43" t="n"/>
       <c r="B62" s="43" t="n"/>
       <c r="C62" s="8" t="inlineStr">
@@ -6185,7 +6247,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="63" s="40">
       <c r="A63" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -6275,7 +6337,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="64" s="40">
       <c r="A64" s="44" t="n"/>
       <c r="B64" s="44" t="n"/>
       <c r="C64" s="19" t="inlineStr">
@@ -6331,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="65" s="40">
       <c r="A65" s="44" t="n"/>
       <c r="B65" s="44" t="n"/>
       <c r="C65" s="19" t="inlineStr">
@@ -6381,7 +6443,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="66" s="40">
       <c r="A66" s="44" t="n"/>
       <c r="B66" s="44" t="n"/>
       <c r="C66" s="8" t="inlineStr">
@@ -6431,7 +6493,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="67" s="40">
       <c r="A67" s="44" t="n"/>
       <c r="B67" s="44" t="n"/>
       <c r="C67" s="19" t="inlineStr">
@@ -6481,7 +6543,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="68" s="40">
       <c r="A68" s="44" t="n"/>
       <c r="B68" s="44" t="n"/>
       <c r="C68" s="19" t="inlineStr">
@@ -6531,7 +6593,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="69" s="40">
       <c r="A69" s="44" t="n"/>
       <c r="B69" s="44" t="n"/>
       <c r="C69" s="8" t="inlineStr">
@@ -6581,7 +6643,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="70" s="40">
       <c r="A70" s="44" t="n"/>
       <c r="B70" s="44" t="n"/>
       <c r="C70" s="19" t="inlineStr">
@@ -6631,7 +6693,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="71" s="40">
       <c r="A71" s="44" t="n"/>
       <c r="B71" s="44" t="n"/>
       <c r="C71" s="19" t="inlineStr">
@@ -6681,7 +6743,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="72" s="40">
       <c r="A72" s="43" t="n"/>
       <c r="B72" s="43" t="n"/>
       <c r="C72" s="8" t="inlineStr">
@@ -6731,7 +6793,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="73" s="40">
       <c r="A73" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -6799,7 +6861,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="74" s="40">
       <c r="A74" s="44" t="n"/>
       <c r="B74" s="44" t="n"/>
       <c r="C74" s="19" t="inlineStr">
@@ -6857,7 +6919,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="75" s="40">
       <c r="A75" s="44" t="n"/>
       <c r="B75" s="44" t="n"/>
       <c r="C75" s="19" t="inlineStr">
@@ -6909,7 +6971,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="76" s="40">
       <c r="A76" s="44" t="n"/>
       <c r="B76" s="44" t="n"/>
       <c r="C76" s="8" t="inlineStr">
@@ -6961,7 +7023,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="77" s="40">
       <c r="A77" s="44" t="n"/>
       <c r="B77" s="44" t="n"/>
       <c r="C77" s="19" t="inlineStr">
@@ -7011,7 +7073,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="78" s="40">
       <c r="A78" s="44" t="n"/>
       <c r="B78" s="44" t="n"/>
       <c r="C78" s="19" t="inlineStr">
@@ -7061,7 +7123,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="79" s="40">
       <c r="A79" s="44" t="n"/>
       <c r="B79" s="44" t="n"/>
       <c r="C79" s="8" t="inlineStr">
@@ -7111,7 +7173,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="80" s="40">
       <c r="A80" s="44" t="n"/>
       <c r="B80" s="44" t="n"/>
       <c r="C80" s="19" t="inlineStr">
@@ -7161,7 +7223,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="81" s="40">
       <c r="A81" s="44" t="n"/>
       <c r="B81" s="44" t="n"/>
       <c r="C81" s="19" t="inlineStr">
@@ -7211,7 +7273,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="82" s="40">
       <c r="A82" s="43" t="n"/>
       <c r="B82" s="43" t="n"/>
       <c r="C82" s="8" t="inlineStr">
@@ -7261,7 +7323,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="83" s="40">
       <c r="A83" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -7329,7 +7391,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="84" s="40">
       <c r="A84" s="44" t="n"/>
       <c r="B84" s="44" t="n"/>
       <c r="C84" s="19" t="inlineStr">
@@ -7381,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="85" s="40">
       <c r="A85" s="44" t="n"/>
       <c r="B85" s="44" t="n"/>
       <c r="C85" s="19" t="inlineStr">
@@ -7433,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="86" s="40">
       <c r="A86" s="44" t="n"/>
       <c r="B86" s="44" t="n"/>
       <c r="C86" s="8" t="inlineStr">
@@ -7485,7 +7547,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="87" s="40">
       <c r="A87" s="44" t="n"/>
       <c r="B87" s="44" t="n"/>
       <c r="C87" s="19" t="inlineStr">
@@ -7535,7 +7597,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="88" s="40">
       <c r="A88" s="44" t="n"/>
       <c r="B88" s="44" t="n"/>
       <c r="C88" s="19" t="inlineStr">
@@ -7585,7 +7647,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="89" s="40">
       <c r="A89" s="44" t="n"/>
       <c r="B89" s="44" t="n"/>
       <c r="C89" s="8" t="inlineStr">
@@ -7635,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="90" s="40">
       <c r="A90" s="44" t="n"/>
       <c r="B90" s="44" t="n"/>
       <c r="C90" s="19" t="inlineStr">
@@ -7685,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="91" s="40">
       <c r="A91" s="44" t="n"/>
       <c r="B91" s="44" t="n"/>
       <c r="C91" s="19" t="inlineStr">
@@ -7735,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="92" s="40">
       <c r="A92" s="43" t="n"/>
       <c r="B92" s="43" t="n"/>
       <c r="C92" s="8" t="inlineStr">
@@ -7785,7 +7847,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="93" s="40">
       <c r="A93" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -7853,7 +7915,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="94" s="40">
       <c r="A94" s="44" t="n"/>
       <c r="B94" s="44" t="n"/>
       <c r="C94" s="19" t="inlineStr">
@@ -7907,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="95" s="40">
       <c r="A95" s="44" t="n"/>
       <c r="B95" s="44" t="n"/>
       <c r="C95" s="19" t="inlineStr">
@@ -7961,7 +8023,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="96" s="40">
       <c r="A96" s="44" t="n"/>
       <c r="B96" s="44" t="n"/>
       <c r="C96" s="8" t="inlineStr">
@@ -8013,7 +8075,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="97" s="40">
       <c r="A97" s="44" t="n"/>
       <c r="B97" s="44" t="n"/>
       <c r="C97" s="19" t="inlineStr">
@@ -8063,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="98" s="40">
       <c r="A98" s="44" t="n"/>
       <c r="B98" s="44" t="n"/>
       <c r="C98" s="19" t="inlineStr">
@@ -8113,7 +8175,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="99" s="40">
       <c r="A99" s="44" t="n"/>
       <c r="B99" s="44" t="n"/>
       <c r="C99" s="8" t="inlineStr">
@@ -8163,7 +8225,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="100" s="40">
       <c r="A100" s="44" t="n"/>
       <c r="B100" s="44" t="n"/>
       <c r="C100" s="19" t="inlineStr">
@@ -8213,7 +8275,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="101" s="40">
       <c r="A101" s="44" t="n"/>
       <c r="B101" s="44" t="n"/>
       <c r="C101" s="19" t="inlineStr">
@@ -8263,7 +8325,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="102" s="40">
       <c r="A102" s="43" t="n"/>
       <c r="B102" s="43" t="n"/>
       <c r="C102" s="8" t="inlineStr">
@@ -8313,7 +8375,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="103" s="40">
       <c r="A103" s="19" t="inlineStr">
         <is>
           <t>启明星辰</t>
@@ -8387,7 +8449,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="104" s="40">
       <c r="A104" s="44" t="n"/>
       <c r="B104" s="44" t="n"/>
       <c r="C104" s="19" t="inlineStr">
@@ -8451,7 +8513,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="105" s="40">
       <c r="A105" s="44" t="n"/>
       <c r="B105" s="44" t="n"/>
       <c r="C105" s="19" t="inlineStr">
@@ -8507,7 +8569,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="106" s="40">
       <c r="A106" s="44" t="n"/>
       <c r="B106" s="44" t="n"/>
       <c r="C106" s="8" t="inlineStr">
@@ -8561,7 +8623,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="107" s="40">
       <c r="A107" s="44" t="n"/>
       <c r="B107" s="44" t="n"/>
       <c r="C107" s="19" t="inlineStr">
@@ -8611,7 +8673,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="108" s="40">
       <c r="A108" s="44" t="n"/>
       <c r="B108" s="44" t="n"/>
       <c r="C108" s="19" t="inlineStr">
@@ -8661,7 +8723,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="109" s="40">
       <c r="A109" s="44" t="n"/>
       <c r="B109" s="44" t="n"/>
       <c r="C109" s="8" t="inlineStr">
@@ -8711,7 +8773,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="110" s="40">
       <c r="A110" s="44" t="n"/>
       <c r="B110" s="44" t="n"/>
       <c r="C110" s="19" t="inlineStr">
@@ -8761,7 +8823,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="111" s="40">
       <c r="A111" s="44" t="n"/>
       <c r="B111" s="44" t="n"/>
       <c r="C111" s="19" t="inlineStr">
@@ -8811,7 +8873,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="112" s="40">
       <c r="A112" s="43" t="n"/>
       <c r="B112" s="43" t="n"/>
       <c r="C112" s="8" t="inlineStr">
@@ -9002,11 +9064,11 @@
     <mergeCell ref="B103:B112"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" priority="1">
+    <cfRule priority="1" type="expression">
       <formula>CELL("row")=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -9020,35 +9082,35 @@
   <dimension ref="A1:AK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="3" ySplit="2"/>
+      <selection activeCell="D1" pane="topRight" sqref="D1"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="I7" pane="bottomRight" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" style="40" min="2" max="2"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="3" max="3"/>
-    <col outlineLevel="1" width="5.125" customWidth="1" style="40" min="4" max="8"/>
-    <col width="8.125" bestFit="1" customWidth="1" style="40" min="9" max="9"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="10" max="14"/>
-    <col width="5.125" customWidth="1" style="40" min="15" max="15"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="16" max="19"/>
-    <col outlineLevel="1" width="6.5" customWidth="1" style="40" min="20" max="20"/>
-    <col width="5.125" customWidth="1" style="40" min="21" max="21"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="22" max="24"/>
-    <col outlineLevel="1" width="6.125" customWidth="1" style="40" min="25" max="25"/>
-    <col outlineLevel="1" width="6.25" customWidth="1" style="40" min="26" max="26"/>
-    <col width="5.125" customWidth="1" style="40" min="27" max="27"/>
-    <col width="8.375" customWidth="1" style="40" min="28" max="28"/>
-    <col width="6.5" customWidth="1" style="40" min="29" max="29"/>
-    <col width="9.25" bestFit="1" customWidth="1" style="40" min="30" max="30"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="31" max="31"/>
-    <col width="6.5" customWidth="1" style="40" min="33" max="37"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="40" width="13"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="40" width="11.125"/>
+    <col customWidth="1" max="8" min="4" outlineLevel="1" style="40" width="5.125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="40" width="8.125"/>
+    <col customWidth="1" max="14" min="10" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="15" min="15" style="40" width="5.125"/>
+    <col customWidth="1" max="19" min="16" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="1" style="40" width="6.5"/>
+    <col customWidth="1" max="21" min="21" style="40" width="5.125"/>
+    <col customWidth="1" max="24" min="22" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="1" style="40" width="6.125"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" max="27" min="27" style="40" width="5.125"/>
+    <col customWidth="1" max="28" min="28" style="40" width="8.375"/>
+    <col customWidth="1" max="29" min="29" style="40" width="6.5"/>
+    <col bestFit="1" customWidth="1" max="30" min="30" style="40" width="9.25"/>
+    <col bestFit="1" customWidth="1" max="31" min="31" style="40" width="11.125"/>
+    <col customWidth="1" max="37" min="33" style="40" width="6.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="1" s="40">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>项目名称</t>
@@ -9125,7 +9187,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="2" s="40">
       <c r="A2" s="43" t="n"/>
       <c r="B2" s="43" t="n"/>
       <c r="C2" s="43" t="n"/>
@@ -9219,7 +9281,7 @@
       <c r="AI2" s="3" t="n"/>
       <c r="AK2" s="3" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="3" s="40">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -9287,7 +9349,7 @@
       </c>
       <c r="AF3" s="12" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="4" s="40">
       <c r="A4" s="44" t="n"/>
       <c r="B4" s="44" t="n"/>
       <c r="C4" s="19" t="inlineStr">
@@ -9344,7 +9406,7 @@
       <c r="AF4" s="13" t="n"/>
       <c r="AH4" s="9" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="5" s="40">
       <c r="A5" s="44" t="n"/>
       <c r="B5" s="44" t="n"/>
       <c r="C5" s="19" t="inlineStr">
@@ -9400,7 +9462,7 @@
       </c>
       <c r="AF5" s="13" t="n"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="6" s="40">
       <c r="A6" s="44" t="n"/>
       <c r="B6" s="44" t="n"/>
       <c r="C6" s="8" t="inlineStr">
@@ -9456,7 +9518,7 @@
       </c>
       <c r="AF6" s="13" t="n"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="7" s="40">
       <c r="A7" s="44" t="n"/>
       <c r="B7" s="44" t="n"/>
       <c r="C7" s="19" t="inlineStr">
@@ -9512,7 +9574,7 @@
       </c>
       <c r="AF7" s="13" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="8" s="40">
       <c r="A8" s="44" t="n"/>
       <c r="B8" s="44" t="n"/>
       <c r="C8" s="19" t="inlineStr">
@@ -9568,7 +9630,7 @@
       </c>
       <c r="AF8" s="13" t="n"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="9" s="40">
       <c r="A9" s="44" t="n"/>
       <c r="B9" s="44" t="n"/>
       <c r="C9" s="8" t="inlineStr">
@@ -9624,7 +9686,7 @@
       </c>
       <c r="AF9" s="13" t="n"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="10" s="40">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="44" t="n"/>
       <c r="C10" s="19" t="inlineStr">
@@ -9680,7 +9742,7 @@
       </c>
       <c r="AF10" s="13" t="n"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="11" s="40">
       <c r="A11" s="44" t="n"/>
       <c r="B11" s="44" t="n"/>
       <c r="C11" s="19" t="inlineStr">
@@ -9736,7 +9798,7 @@
       </c>
       <c r="AF11" s="13" t="n"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="12" s="40">
       <c r="A12" s="43" t="n"/>
       <c r="B12" s="43" t="n"/>
       <c r="C12" s="8" t="inlineStr">
@@ -9792,7 +9854,7 @@
       </c>
       <c r="AF12" s="13" t="n"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="13" s="40">
       <c r="A13" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -9860,7 +9922,7 @@
       </c>
       <c r="AF13" s="12" t="n"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="14" s="40">
       <c r="A14" s="44" t="n"/>
       <c r="B14" s="44" t="n"/>
       <c r="C14" s="19" t="inlineStr">
@@ -9916,7 +9978,7 @@
       </c>
       <c r="AF14" s="13" t="n"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="15" s="40">
       <c r="A15" s="44" t="n"/>
       <c r="B15" s="44" t="n"/>
       <c r="C15" s="19" t="inlineStr">
@@ -9972,7 +10034,7 @@
       </c>
       <c r="AF15" s="13" t="n"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="16" s="40">
       <c r="A16" s="44" t="n"/>
       <c r="B16" s="44" t="n"/>
       <c r="C16" s="8" t="inlineStr">
@@ -10028,7 +10090,7 @@
       </c>
       <c r="AF16" s="13" t="n"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="17" s="40">
       <c r="A17" s="44" t="n"/>
       <c r="B17" s="44" t="n"/>
       <c r="C17" s="19" t="inlineStr">
@@ -10084,7 +10146,7 @@
       </c>
       <c r="AF17" s="13" t="n"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="18" s="40">
       <c r="A18" s="44" t="n"/>
       <c r="B18" s="44" t="n"/>
       <c r="C18" s="19" t="inlineStr">
@@ -10140,7 +10202,7 @@
       </c>
       <c r="AF18" s="13" t="n"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="19" s="40">
       <c r="A19" s="44" t="n"/>
       <c r="B19" s="44" t="n"/>
       <c r="C19" s="8" t="inlineStr">
@@ -10196,7 +10258,7 @@
       </c>
       <c r="AF19" s="13" t="n"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="20" s="40">
       <c r="A20" s="44" t="n"/>
       <c r="B20" s="44" t="n"/>
       <c r="C20" s="19" t="inlineStr">
@@ -10252,7 +10314,7 @@
       </c>
       <c r="AF20" s="13" t="n"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="21" s="40">
       <c r="A21" s="44" t="n"/>
       <c r="B21" s="44" t="n"/>
       <c r="C21" s="19" t="inlineStr">
@@ -10308,7 +10370,7 @@
       </c>
       <c r="AF21" s="13" t="n"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="22" s="40">
       <c r="A22" s="43" t="n"/>
       <c r="B22" s="43" t="n"/>
       <c r="C22" s="8" t="inlineStr">
@@ -10364,7 +10426,7 @@
       </c>
       <c r="AF22" s="13" t="n"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="23" s="40">
       <c r="A23" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -10432,7 +10494,7 @@
       </c>
       <c r="AF23" s="12" t="n"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="24" s="40">
       <c r="A24" s="44" t="n"/>
       <c r="B24" s="44" t="n"/>
       <c r="C24" s="19" t="inlineStr">
@@ -10488,7 +10550,7 @@
       </c>
       <c r="AF24" s="13" t="n"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="25" s="40">
       <c r="A25" s="44" t="n"/>
       <c r="B25" s="44" t="n"/>
       <c r="C25" s="19" t="inlineStr">
@@ -10544,7 +10606,7 @@
       </c>
       <c r="AF25" s="13" t="n"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="26" s="40">
       <c r="A26" s="44" t="n"/>
       <c r="B26" s="44" t="n"/>
       <c r="C26" s="8" t="inlineStr">
@@ -10600,7 +10662,7 @@
       </c>
       <c r="AF26" s="13" t="n"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="27" s="40">
       <c r="A27" s="44" t="n"/>
       <c r="B27" s="44" t="n"/>
       <c r="C27" s="19" t="inlineStr">
@@ -10656,7 +10718,7 @@
       </c>
       <c r="AF27" s="13" t="n"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="28" s="40">
       <c r="A28" s="44" t="n"/>
       <c r="B28" s="44" t="n"/>
       <c r="C28" s="19" t="inlineStr">
@@ -10712,7 +10774,7 @@
       </c>
       <c r="AF28" s="13" t="n"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="29" s="40">
       <c r="A29" s="44" t="n"/>
       <c r="B29" s="44" t="n"/>
       <c r="C29" s="8" t="inlineStr">
@@ -10768,7 +10830,7 @@
       </c>
       <c r="AF29" s="13" t="n"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="30" s="40">
       <c r="A30" s="44" t="n"/>
       <c r="B30" s="44" t="n"/>
       <c r="C30" s="19" t="inlineStr">
@@ -10824,7 +10886,7 @@
       </c>
       <c r="AF30" s="13" t="n"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="31" s="40">
       <c r="A31" s="44" t="n"/>
       <c r="B31" s="44" t="n"/>
       <c r="C31" s="19" t="inlineStr">
@@ -10880,7 +10942,7 @@
       </c>
       <c r="AF31" s="13" t="n"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="32" s="40">
       <c r="A32" s="43" t="n"/>
       <c r="B32" s="43" t="n"/>
       <c r="C32" s="8" t="inlineStr">
@@ -10936,7 +10998,7 @@
       </c>
       <c r="AF32" s="13" t="n"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="33" s="40">
       <c r="A33" s="19" t="inlineStr">
         <is>
           <t>洋葱</t>
@@ -10993,7 +11055,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="34" s="40">
       <c r="A34" s="44" t="n"/>
       <c r="B34" s="44" t="n"/>
       <c r="C34" s="19" t="inlineStr">
@@ -11042,7 +11104,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="35" s="40">
       <c r="A35" s="44" t="n"/>
       <c r="B35" s="44" t="n"/>
       <c r="C35" s="19" t="inlineStr">
@@ -11091,7 +11153,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="36" s="40">
       <c r="A36" s="44" t="n"/>
       <c r="B36" s="44" t="n"/>
       <c r="C36" s="8" t="inlineStr">
@@ -11140,7 +11202,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="37" s="40">
       <c r="A37" s="44" t="n"/>
       <c r="B37" s="44" t="n"/>
       <c r="C37" s="19" t="inlineStr">
@@ -11189,7 +11251,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="38" s="40">
       <c r="A38" s="44" t="n"/>
       <c r="B38" s="44" t="n"/>
       <c r="C38" s="19" t="inlineStr">
@@ -11238,7 +11300,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="39" s="40">
       <c r="A39" s="44" t="n"/>
       <c r="B39" s="44" t="n"/>
       <c r="C39" s="8" t="inlineStr">
@@ -11287,7 +11349,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="40" s="40">
       <c r="A40" s="44" t="n"/>
       <c r="B40" s="44" t="n"/>
       <c r="C40" s="19" t="inlineStr">
@@ -11336,7 +11398,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="41" s="40">
       <c r="A41" s="44" t="n"/>
       <c r="B41" s="44" t="n"/>
       <c r="C41" s="19" t="inlineStr">
@@ -11385,7 +11447,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="42" s="40">
       <c r="A42" s="43" t="n"/>
       <c r="B42" s="43" t="n"/>
       <c r="C42" s="8" t="inlineStr">
@@ -11434,7 +11496,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="43" s="40">
       <c r="A43" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -11491,7 +11553,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="44" s="40">
       <c r="A44" s="44" t="n"/>
       <c r="B44" s="44" t="n"/>
       <c r="C44" s="19" t="inlineStr">
@@ -11540,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="45" s="40">
       <c r="A45" s="44" t="n"/>
       <c r="B45" s="44" t="n"/>
       <c r="C45" s="19" t="inlineStr">
@@ -11589,7 +11651,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="46" s="40">
       <c r="A46" s="44" t="n"/>
       <c r="B46" s="44" t="n"/>
       <c r="C46" s="8" t="inlineStr">
@@ -11638,7 +11700,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="47" s="40">
       <c r="A47" s="44" t="n"/>
       <c r="B47" s="44" t="n"/>
       <c r="C47" s="19" t="inlineStr">
@@ -11687,7 +11749,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="48" s="40">
       <c r="A48" s="44" t="n"/>
       <c r="B48" s="44" t="n"/>
       <c r="C48" s="19" t="inlineStr">
@@ -11736,7 +11798,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="49" s="40">
       <c r="A49" s="44" t="n"/>
       <c r="B49" s="44" t="n"/>
       <c r="C49" s="8" t="inlineStr">
@@ -11785,7 +11847,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="50" s="40">
       <c r="A50" s="44" t="n"/>
       <c r="B50" s="44" t="n"/>
       <c r="C50" s="19" t="inlineStr">
@@ -11834,7 +11896,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="51" s="40">
       <c r="A51" s="44" t="n"/>
       <c r="B51" s="44" t="n"/>
       <c r="C51" s="19" t="inlineStr">
@@ -11883,7 +11945,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="52" s="40">
       <c r="A52" s="43" t="n"/>
       <c r="B52" s="43" t="n"/>
       <c r="C52" s="8" t="inlineStr">
@@ -11932,7 +11994,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="53" s="40">
       <c r="A53" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -11989,7 +12051,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="54" s="40">
       <c r="A54" s="44" t="n"/>
       <c r="B54" s="44" t="n"/>
       <c r="C54" s="19" t="inlineStr">
@@ -12038,7 +12100,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="55" s="40">
       <c r="A55" s="44" t="n"/>
       <c r="B55" s="44" t="n"/>
       <c r="C55" s="19" t="inlineStr">
@@ -12087,7 +12149,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="56" s="40">
       <c r="A56" s="44" t="n"/>
       <c r="B56" s="44" t="n"/>
       <c r="C56" s="8" t="inlineStr">
@@ -12136,7 +12198,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="57" s="40">
       <c r="A57" s="44" t="n"/>
       <c r="B57" s="44" t="n"/>
       <c r="C57" s="19" t="inlineStr">
@@ -12185,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="58" s="40">
       <c r="A58" s="44" t="n"/>
       <c r="B58" s="44" t="n"/>
       <c r="C58" s="19" t="inlineStr">
@@ -12234,7 +12296,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="59" s="40">
       <c r="A59" s="44" t="n"/>
       <c r="B59" s="44" t="n"/>
       <c r="C59" s="8" t="inlineStr">
@@ -12283,7 +12345,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="60" s="40">
       <c r="A60" s="44" t="n"/>
       <c r="B60" s="44" t="n"/>
       <c r="C60" s="19" t="inlineStr">
@@ -12332,7 +12394,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="61" s="40">
       <c r="A61" s="44" t="n"/>
       <c r="B61" s="44" t="n"/>
       <c r="C61" s="19" t="inlineStr">
@@ -12381,7 +12443,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="62" s="40">
       <c r="A62" s="43" t="n"/>
       <c r="B62" s="43" t="n"/>
       <c r="C62" s="8" t="inlineStr">
@@ -12430,7 +12492,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="63" s="40">
       <c r="A63" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -12487,7 +12549,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="64" s="40">
       <c r="A64" s="44" t="n"/>
       <c r="B64" s="44" t="n"/>
       <c r="C64" s="19" t="inlineStr">
@@ -12536,7 +12598,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="65" s="40">
       <c r="A65" s="44" t="n"/>
       <c r="B65" s="44" t="n"/>
       <c r="C65" s="19" t="inlineStr">
@@ -12585,7 +12647,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="66" s="40">
       <c r="A66" s="44" t="n"/>
       <c r="B66" s="44" t="n"/>
       <c r="C66" s="8" t="inlineStr">
@@ -12634,7 +12696,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="67" s="40">
       <c r="A67" s="44" t="n"/>
       <c r="B67" s="44" t="n"/>
       <c r="C67" s="19" t="inlineStr">
@@ -12683,7 +12745,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="68" s="40">
       <c r="A68" s="44" t="n"/>
       <c r="B68" s="44" t="n"/>
       <c r="C68" s="19" t="inlineStr">
@@ -12732,7 +12794,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="69" s="40">
       <c r="A69" s="44" t="n"/>
       <c r="B69" s="44" t="n"/>
       <c r="C69" s="8" t="inlineStr">
@@ -12781,7 +12843,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="70" s="40">
       <c r="A70" s="44" t="n"/>
       <c r="B70" s="44" t="n"/>
       <c r="C70" s="19" t="inlineStr">
@@ -12830,7 +12892,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="71" s="40">
       <c r="A71" s="44" t="n"/>
       <c r="B71" s="44" t="n"/>
       <c r="C71" s="19" t="inlineStr">
@@ -12879,7 +12941,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="72" s="40">
       <c r="A72" s="43" t="n"/>
       <c r="B72" s="43" t="n"/>
       <c r="C72" s="8" t="inlineStr">
@@ -12959,7 +13021,7 @@
     <mergeCell ref="B53:B62"/>
     <mergeCell ref="AD1:AD2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -12973,37 +13035,37 @@
   <dimension ref="A1:AP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:B22"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="3" ySplit="2"/>
+      <selection activeCell="D1" pane="topRight" sqref="D1"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="B13" pane="bottomRight" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" style="40" min="2" max="2"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="3" max="3"/>
-    <col hidden="1" outlineLevel="1" width="5.125" customWidth="1" style="40" min="4" max="8"/>
-    <col collapsed="1" width="8.125" bestFit="1" customWidth="1" style="40" min="9" max="9"/>
-    <col hidden="1" outlineLevel="1" width="6.25" customWidth="1" style="40" min="10" max="12"/>
-    <col hidden="1" outlineLevel="1" width="7.875" customWidth="1" style="40" min="13" max="13"/>
-    <col hidden="1" outlineLevel="1" width="6.25" customWidth="1" style="40" min="14" max="14"/>
-    <col collapsed="1" width="5.125" customWidth="1" style="40" min="15" max="15"/>
-    <col hidden="1" outlineLevel="1" width="6.25" customWidth="1" style="40" min="16" max="20"/>
-    <col collapsed="1" width="4.5" bestFit="1" customWidth="1" style="40" min="21" max="21"/>
-    <col hidden="1" outlineLevel="1" width="6.25" customWidth="1" style="40" min="22" max="26"/>
-    <col collapsed="1" width="5.125" customWidth="1" style="40" min="27" max="27"/>
-    <col hidden="1" outlineLevel="1" width="6.25" customWidth="1" style="40" min="28" max="29"/>
-    <col hidden="1" outlineLevel="1" width="6.875" customWidth="1" style="40" min="30" max="31"/>
-    <col collapsed="1" width="5.125" customWidth="1" style="40" min="32" max="32"/>
-    <col width="8.375" customWidth="1" style="40" min="33" max="33"/>
-    <col width="6.5" customWidth="1" style="40" min="34" max="34"/>
-    <col width="9.25" bestFit="1" customWidth="1" style="40" min="35" max="35"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="36" max="36"/>
-    <col width="6.5" customWidth="1" style="40" min="38" max="42"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="40" width="13"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="40" width="11.125"/>
+    <col customWidth="1" hidden="1" max="8" min="4" outlineLevel="1" style="40" width="5.125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="9" min="9" style="40" width="8.125"/>
+    <col customWidth="1" hidden="1" max="12" min="10" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" hidden="1" max="13" min="13" outlineLevel="1" style="40" width="7.875"/>
+    <col customWidth="1" hidden="1" max="14" min="14" outlineLevel="1" style="40" width="6.25"/>
+    <col collapsed="1" customWidth="1" max="15" min="15" style="40" width="5.125"/>
+    <col customWidth="1" hidden="1" max="20" min="16" outlineLevel="1" style="40" width="6.25"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="21" min="21" style="40" width="4.5"/>
+    <col customWidth="1" hidden="1" max="26" min="22" outlineLevel="1" style="40" width="6.25"/>
+    <col collapsed="1" customWidth="1" max="27" min="27" style="40" width="5.125"/>
+    <col customWidth="1" hidden="1" max="29" min="28" outlineLevel="1" style="40" width="6.25"/>
+    <col customWidth="1" hidden="1" max="31" min="30" outlineLevel="1" style="40" width="6.875"/>
+    <col collapsed="1" customWidth="1" max="32" min="32" style="40" width="5.125"/>
+    <col customWidth="1" max="33" min="33" style="40" width="8.375"/>
+    <col customWidth="1" max="34" min="34" style="40" width="6.5"/>
+    <col bestFit="1" customWidth="1" max="35" min="35" style="40" width="9.25"/>
+    <col bestFit="1" customWidth="1" max="36" min="36" style="40" width="11.125"/>
+    <col customWidth="1" max="42" min="38" style="40" width="6.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="1" s="40">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>项目名称</t>
@@ -13089,7 +13151,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="2" s="40">
       <c r="A2" s="43" t="n"/>
       <c r="B2" s="43" t="n"/>
       <c r="C2" s="43" t="n"/>
@@ -13198,7 +13260,7 @@
       <c r="AN2" s="3" t="n"/>
       <c r="AP2" s="3" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="3" s="40">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -13274,7 +13336,7 @@
       </c>
       <c r="AK3" s="12" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="4" s="40">
       <c r="A4" s="44" t="n"/>
       <c r="B4" s="44" t="n"/>
       <c r="C4" s="19" t="inlineStr">
@@ -13339,7 +13401,7 @@
       <c r="AK4" s="13" t="n"/>
       <c r="AM4" s="9" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="5" s="40">
       <c r="A5" s="44" t="n"/>
       <c r="B5" s="44" t="n"/>
       <c r="C5" s="19" t="inlineStr">
@@ -13403,7 +13465,7 @@
       </c>
       <c r="AK5" s="13" t="n"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="6" s="40">
       <c r="A6" s="44" t="n"/>
       <c r="B6" s="44" t="n"/>
       <c r="C6" s="8" t="inlineStr">
@@ -13467,7 +13529,7 @@
       </c>
       <c r="AK6" s="13" t="n"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="7" s="40">
       <c r="A7" s="44" t="n"/>
       <c r="B7" s="44" t="n"/>
       <c r="C7" s="19" t="inlineStr">
@@ -13531,7 +13593,7 @@
       </c>
       <c r="AK7" s="13" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="8" s="40">
       <c r="A8" s="44" t="n"/>
       <c r="B8" s="44" t="n"/>
       <c r="C8" s="19" t="inlineStr">
@@ -13595,7 +13657,7 @@
       </c>
       <c r="AK8" s="13" t="n"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="9" s="40">
       <c r="A9" s="44" t="n"/>
       <c r="B9" s="44" t="n"/>
       <c r="C9" s="8" t="inlineStr">
@@ -13659,7 +13721,7 @@
       </c>
       <c r="AK9" s="13" t="n"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="10" s="40">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="44" t="n"/>
       <c r="C10" s="19" t="inlineStr">
@@ -13723,7 +13785,7 @@
       </c>
       <c r="AK10" s="13" t="n"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="11" s="40">
       <c r="A11" s="44" t="n"/>
       <c r="B11" s="44" t="n"/>
       <c r="C11" s="19" t="inlineStr">
@@ -13787,7 +13849,7 @@
       </c>
       <c r="AK11" s="13" t="n"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="12" s="40">
       <c r="A12" s="43" t="n"/>
       <c r="B12" s="43" t="n"/>
       <c r="C12" s="8" t="inlineStr">
@@ -13851,7 +13913,7 @@
       </c>
       <c r="AK12" s="13" t="n"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="13" s="40">
       <c r="A13" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -13927,7 +13989,7 @@
       </c>
       <c r="AK13" s="12" t="n"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="14" s="40">
       <c r="A14" s="44" t="n"/>
       <c r="B14" s="44" t="n"/>
       <c r="C14" s="19" t="inlineStr">
@@ -13991,7 +14053,7 @@
       </c>
       <c r="AK14" s="13" t="n"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="15" s="40">
       <c r="A15" s="44" t="n"/>
       <c r="B15" s="44" t="n"/>
       <c r="C15" s="19" t="inlineStr">
@@ -14055,7 +14117,7 @@
       </c>
       <c r="AK15" s="13" t="n"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="16" s="40">
       <c r="A16" s="44" t="n"/>
       <c r="B16" s="44" t="n"/>
       <c r="C16" s="8" t="inlineStr">
@@ -14119,7 +14181,7 @@
       </c>
       <c r="AK16" s="13" t="n"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="17" s="40">
       <c r="A17" s="44" t="n"/>
       <c r="B17" s="44" t="n"/>
       <c r="C17" s="19" t="inlineStr">
@@ -14183,7 +14245,7 @@
       </c>
       <c r="AK17" s="13" t="n"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="18" s="40">
       <c r="A18" s="44" t="n"/>
       <c r="B18" s="44" t="n"/>
       <c r="C18" s="19" t="inlineStr">
@@ -14247,7 +14309,7 @@
       </c>
       <c r="AK18" s="13" t="n"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="19" s="40">
       <c r="A19" s="44" t="n"/>
       <c r="B19" s="44" t="n"/>
       <c r="C19" s="8" t="inlineStr">
@@ -14311,7 +14373,7 @@
       </c>
       <c r="AK19" s="13" t="n"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="20" s="40">
       <c r="A20" s="44" t="n"/>
       <c r="B20" s="44" t="n"/>
       <c r="C20" s="19" t="inlineStr">
@@ -14375,7 +14437,7 @@
       </c>
       <c r="AK20" s="13" t="n"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="21" s="40">
       <c r="A21" s="44" t="n"/>
       <c r="B21" s="44" t="n"/>
       <c r="C21" s="19" t="inlineStr">
@@ -14439,7 +14501,7 @@
       </c>
       <c r="AK21" s="13" t="n"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="22" s="40">
       <c r="A22" s="43" t="n"/>
       <c r="B22" s="43" t="n"/>
       <c r="C22" s="8" t="inlineStr">
@@ -14503,7 +14565,7 @@
       </c>
       <c r="AK22" s="13" t="n"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="23" s="40">
       <c r="A23" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -14579,7 +14641,7 @@
       </c>
       <c r="AK23" s="12" t="n"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="24" s="40">
       <c r="A24" s="44" t="n"/>
       <c r="B24" s="44" t="n"/>
       <c r="C24" s="19" t="inlineStr">
@@ -14643,7 +14705,7 @@
       </c>
       <c r="AK24" s="13" t="n"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="25" s="40">
       <c r="A25" s="44" t="n"/>
       <c r="B25" s="44" t="n"/>
       <c r="C25" s="19" t="inlineStr">
@@ -14707,7 +14769,7 @@
       </c>
       <c r="AK25" s="13" t="n"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="26" s="40">
       <c r="A26" s="44" t="n"/>
       <c r="B26" s="44" t="n"/>
       <c r="C26" s="8" t="inlineStr">
@@ -14771,7 +14833,7 @@
       </c>
       <c r="AK26" s="13" t="n"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="27" s="40">
       <c r="A27" s="44" t="n"/>
       <c r="B27" s="44" t="n"/>
       <c r="C27" s="19" t="inlineStr">
@@ -14835,7 +14897,7 @@
       </c>
       <c r="AK27" s="13" t="n"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="28" s="40">
       <c r="A28" s="44" t="n"/>
       <c r="B28" s="44" t="n"/>
       <c r="C28" s="19" t="inlineStr">
@@ -14899,7 +14961,7 @@
       </c>
       <c r="AK28" s="13" t="n"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="29" s="40">
       <c r="A29" s="44" t="n"/>
       <c r="B29" s="44" t="n"/>
       <c r="C29" s="8" t="inlineStr">
@@ -14963,7 +15025,7 @@
       </c>
       <c r="AK29" s="13" t="n"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="30" s="40">
       <c r="A30" s="44" t="n"/>
       <c r="B30" s="44" t="n"/>
       <c r="C30" s="19" t="inlineStr">
@@ -15027,7 +15089,7 @@
       </c>
       <c r="AK30" s="13" t="n"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="31" s="40">
       <c r="A31" s="44" t="n"/>
       <c r="B31" s="44" t="n"/>
       <c r="C31" s="19" t="inlineStr">
@@ -15091,7 +15153,7 @@
       </c>
       <c r="AK31" s="13" t="n"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="32" s="40">
       <c r="A32" s="43" t="n"/>
       <c r="B32" s="43" t="n"/>
       <c r="C32" s="8" t="inlineStr">
@@ -15155,7 +15217,7 @@
       </c>
       <c r="AK32" s="13" t="n"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="33" s="40">
       <c r="A33" s="19" t="inlineStr">
         <is>
           <t>洋葱</t>
@@ -15220,7 +15282,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="34" s="40">
       <c r="A34" s="44" t="n"/>
       <c r="B34" s="44" t="n"/>
       <c r="C34" s="19" t="inlineStr">
@@ -15277,7 +15339,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="35" s="40">
       <c r="A35" s="44" t="n"/>
       <c r="B35" s="44" t="n"/>
       <c r="C35" s="19" t="inlineStr">
@@ -15334,7 +15396,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="36" s="40">
       <c r="A36" s="44" t="n"/>
       <c r="B36" s="44" t="n"/>
       <c r="C36" s="8" t="inlineStr">
@@ -15391,7 +15453,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="37" s="40">
       <c r="A37" s="44" t="n"/>
       <c r="B37" s="44" t="n"/>
       <c r="C37" s="19" t="inlineStr">
@@ -15448,7 +15510,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="38" s="40">
       <c r="A38" s="44" t="n"/>
       <c r="B38" s="44" t="n"/>
       <c r="C38" s="19" t="inlineStr">
@@ -15505,7 +15567,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="39" s="40">
       <c r="A39" s="44" t="n"/>
       <c r="B39" s="44" t="n"/>
       <c r="C39" s="8" t="inlineStr">
@@ -15562,7 +15624,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="40" s="40">
       <c r="A40" s="44" t="n"/>
       <c r="B40" s="44" t="n"/>
       <c r="C40" s="19" t="inlineStr">
@@ -15619,7 +15681,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="41" s="40">
       <c r="A41" s="44" t="n"/>
       <c r="B41" s="44" t="n"/>
       <c r="C41" s="19" t="inlineStr">
@@ -15676,7 +15738,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="42" s="40">
       <c r="A42" s="43" t="n"/>
       <c r="B42" s="43" t="n"/>
       <c r="C42" s="8" t="inlineStr">
@@ -15733,7 +15795,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="43" s="40">
       <c r="A43" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -15798,7 +15860,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="44" s="40">
       <c r="A44" s="44" t="n"/>
       <c r="B44" s="44" t="n"/>
       <c r="C44" s="19" t="inlineStr">
@@ -15855,7 +15917,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="45" s="40">
       <c r="A45" s="44" t="n"/>
       <c r="B45" s="44" t="n"/>
       <c r="C45" s="19" t="inlineStr">
@@ -15912,7 +15974,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="46" s="40">
       <c r="A46" s="44" t="n"/>
       <c r="B46" s="44" t="n"/>
       <c r="C46" s="8" t="inlineStr">
@@ -15969,7 +16031,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="47" s="40">
       <c r="A47" s="44" t="n"/>
       <c r="B47" s="44" t="n"/>
       <c r="C47" s="19" t="inlineStr">
@@ -16026,7 +16088,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="48" s="40">
       <c r="A48" s="44" t="n"/>
       <c r="B48" s="44" t="n"/>
       <c r="C48" s="19" t="inlineStr">
@@ -16083,7 +16145,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="49" s="40">
       <c r="A49" s="44" t="n"/>
       <c r="B49" s="44" t="n"/>
       <c r="C49" s="8" t="inlineStr">
@@ -16140,7 +16202,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="50" s="40">
       <c r="A50" s="44" t="n"/>
       <c r="B50" s="44" t="n"/>
       <c r="C50" s="19" t="inlineStr">
@@ -16197,7 +16259,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="51" s="40">
       <c r="A51" s="44" t="n"/>
       <c r="B51" s="44" t="n"/>
       <c r="C51" s="19" t="inlineStr">
@@ -16254,7 +16316,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="52" s="40">
       <c r="A52" s="43" t="n"/>
       <c r="B52" s="43" t="n"/>
       <c r="C52" s="8" t="inlineStr">
@@ -16311,7 +16373,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="53" s="40">
       <c r="A53" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -16376,7 +16438,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="54" s="40">
       <c r="A54" s="44" t="n"/>
       <c r="B54" s="44" t="n"/>
       <c r="C54" s="19" t="inlineStr">
@@ -16433,7 +16495,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="55" s="40">
       <c r="A55" s="44" t="n"/>
       <c r="B55" s="44" t="n"/>
       <c r="C55" s="19" t="inlineStr">
@@ -16490,7 +16552,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="56" s="40">
       <c r="A56" s="44" t="n"/>
       <c r="B56" s="44" t="n"/>
       <c r="C56" s="8" t="inlineStr">
@@ -16547,7 +16609,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="57" s="40">
       <c r="A57" s="44" t="n"/>
       <c r="B57" s="44" t="n"/>
       <c r="C57" s="19" t="inlineStr">
@@ -16604,7 +16666,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="58" s="40">
       <c r="A58" s="44" t="n"/>
       <c r="B58" s="44" t="n"/>
       <c r="C58" s="19" t="inlineStr">
@@ -16661,7 +16723,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="59" s="40">
       <c r="A59" s="44" t="n"/>
       <c r="B59" s="44" t="n"/>
       <c r="C59" s="8" t="inlineStr">
@@ -16718,7 +16780,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="60" s="40">
       <c r="A60" s="44" t="n"/>
       <c r="B60" s="44" t="n"/>
       <c r="C60" s="19" t="inlineStr">
@@ -16775,7 +16837,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="61" s="40">
       <c r="A61" s="44" t="n"/>
       <c r="B61" s="44" t="n"/>
       <c r="C61" s="19" t="inlineStr">
@@ -16832,7 +16894,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="62" s="40">
       <c r="A62" s="43" t="n"/>
       <c r="B62" s="43" t="n"/>
       <c r="C62" s="8" t="inlineStr">
@@ -16889,7 +16951,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="63" s="40">
       <c r="A63" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -16954,7 +17016,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="64" s="40">
       <c r="A64" s="44" t="n"/>
       <c r="B64" s="44" t="n"/>
       <c r="C64" s="19" t="inlineStr">
@@ -17011,7 +17073,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="65" s="40">
       <c r="A65" s="44" t="n"/>
       <c r="B65" s="44" t="n"/>
       <c r="C65" s="19" t="inlineStr">
@@ -17068,7 +17130,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="66" s="40">
       <c r="A66" s="44" t="n"/>
       <c r="B66" s="44" t="n"/>
       <c r="C66" s="8" t="inlineStr">
@@ -17125,7 +17187,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="67" s="40">
       <c r="A67" s="44" t="n"/>
       <c r="B67" s="44" t="n"/>
       <c r="C67" s="19" t="inlineStr">
@@ -17182,7 +17244,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="68" s="40">
       <c r="A68" s="44" t="n"/>
       <c r="B68" s="44" t="n"/>
       <c r="C68" s="19" t="inlineStr">
@@ -17239,7 +17301,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="69" s="40">
       <c r="A69" s="44" t="n"/>
       <c r="B69" s="44" t="n"/>
       <c r="C69" s="8" t="inlineStr">
@@ -17296,7 +17358,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="70" s="40">
       <c r="A70" s="44" t="n"/>
       <c r="B70" s="44" t="n"/>
       <c r="C70" s="19" t="inlineStr">
@@ -17353,7 +17415,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="71" s="40">
       <c r="A71" s="44" t="n"/>
       <c r="B71" s="44" t="n"/>
       <c r="C71" s="19" t="inlineStr">
@@ -17410,7 +17472,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="72" s="40">
       <c r="A72" s="43" t="n"/>
       <c r="B72" s="43" t="n"/>
       <c r="C72" s="8" t="inlineStr">
@@ -17499,7 +17561,7 @@
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -17518,11 +17580,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="7.875" bestFit="1" customWidth="1" style="40" min="1" max="1"/>
-    <col width="7.875" customWidth="1" style="40" min="2" max="3"/>
-    <col width="10.25" bestFit="1" customWidth="1" style="40" min="4" max="4"/>
-    <col width="12.375" customWidth="1" style="40" min="5" max="5"/>
-    <col width="11.125" bestFit="1" customWidth="1" style="40" min="6" max="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="40" width="7.875"/>
+    <col customWidth="1" max="3" min="2" style="40" width="7.875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="40" width="10.25"/>
+    <col customWidth="1" max="5" min="5" style="40" width="12.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="40" width="11.125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17655,7 +17717,7 @@
       <c r="T2" s="43" t="n"/>
       <c r="U2" s="43" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="3" s="40">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -17699,7 +17761,7 @@
       <c r="T3" s="11" t="n"/>
       <c r="U3" s="11" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="4" s="40">
       <c r="A4" s="44" t="n"/>
       <c r="B4" s="44" t="n"/>
       <c r="C4" s="44" t="n"/>
@@ -17726,7 +17788,7 @@
       <c r="T4" s="11" t="n"/>
       <c r="U4" s="11" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="5" s="40">
       <c r="A5" s="44" t="n"/>
       <c r="B5" s="44" t="n"/>
       <c r="C5" s="44" t="n"/>
@@ -17753,7 +17815,7 @@
       <c r="T5" s="11" t="n"/>
       <c r="U5" s="11" t="n"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="6" s="40">
       <c r="A6" s="44" t="n"/>
       <c r="B6" s="44" t="n"/>
       <c r="C6" s="44" t="n"/>
@@ -17780,7 +17842,7 @@
       <c r="T6" s="11" t="n"/>
       <c r="U6" s="11" t="n"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="7" s="40">
       <c r="A7" s="44" t="n"/>
       <c r="B7" s="44" t="n"/>
       <c r="C7" s="44" t="n"/>
@@ -17807,7 +17869,7 @@
       <c r="T7" s="11" t="n"/>
       <c r="U7" s="11" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="8" s="40">
       <c r="A8" s="44" t="n"/>
       <c r="B8" s="44" t="n"/>
       <c r="C8" s="44" t="n"/>
@@ -17834,7 +17896,7 @@
       <c r="T8" s="11" t="n"/>
       <c r="U8" s="11" t="n"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="9" s="40">
       <c r="A9" s="44" t="n"/>
       <c r="B9" s="44" t="n"/>
       <c r="C9" s="44" t="n"/>
@@ -17861,7 +17923,7 @@
       <c r="T9" s="11" t="n"/>
       <c r="U9" s="11" t="n"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="10" s="40">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="44" t="n"/>
       <c r="C10" s="44" t="n"/>
@@ -17888,7 +17950,7 @@
       <c r="T10" s="11" t="n"/>
       <c r="U10" s="11" t="n"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="11" s="40">
       <c r="A11" s="44" t="n"/>
       <c r="B11" s="44" t="n"/>
       <c r="C11" s="44" t="n"/>
@@ -17915,7 +17977,7 @@
       <c r="T11" s="11" t="n"/>
       <c r="U11" s="11" t="n"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="12" s="40">
       <c r="A12" s="43" t="n"/>
       <c r="B12" s="43" t="n"/>
       <c r="C12" s="43" t="n"/>
@@ -17973,7 +18035,7 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -17987,16 +18049,16 @@
   <dimension ref="A1:AG61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3:AF31"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <selection activeCell="AF3" pane="bottomLeft" sqref="AF3:AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="5.125" customWidth="1" style="40" min="4" max="27"/>
+    <col customWidth="1" max="27" min="4" style="40" width="5.125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="1" s="40">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>项目名称</t>
@@ -18074,7 +18136,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="2" s="40">
       <c r="A2" s="43" t="n"/>
       <c r="B2" s="43" t="n"/>
       <c r="C2" s="43" t="n"/>
@@ -18178,7 +18240,7 @@
       <c r="AF2" s="43" t="n"/>
       <c r="AG2" s="43" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="40">
+    <row customHeight="1" ht="14.25" r="3" s="40">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -18260,17 +18322,17 @@
           <t>航天科工</t>
         </is>
       </c>
-      <c r="AF3" s="47" t="inlineStr">
+      <c r="AF3" s="48" t="inlineStr">
         <is>
           <t>需求</t>
         </is>
       </c>
       <c r="AG3" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC43,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4" s="40">
       <c r="A4" s="44" t="n"/>
       <c r="B4" s="44" t="n"/>
       <c r="C4" s="19" t="inlineStr">
@@ -18319,18 +18381,18 @@
         <f>IF(SUM(D4:AB4)=0,"",SUM(D4:AB4)/2)</f>
         <v/>
       </c>
-      <c r="AE4" s="47" t="inlineStr"/>
+      <c r="AE4" s="49" t="n"/>
       <c r="AF4" s="47" t="inlineStr">
         <is>
           <t>推荐简历</t>
         </is>
       </c>
       <c r="AG4" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC44,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" s="40">
       <c r="A5" s="44" t="n"/>
       <c r="B5" s="44" t="n"/>
       <c r="C5" s="19" t="inlineStr">
@@ -18379,18 +18441,18 @@
         <f>IF(SUM(D5:AB5)=0,"",SUM(D5:AB5)/2)</f>
         <v/>
       </c>
-      <c r="AE5" s="47" t="inlineStr"/>
+      <c r="AE5" s="49" t="n"/>
       <c r="AF5" s="47" t="inlineStr">
         <is>
           <t>有效简历数</t>
         </is>
       </c>
       <c r="AG5" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC45,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6" s="40">
       <c r="A6" s="44" t="n"/>
       <c r="B6" s="44" t="n"/>
       <c r="C6" s="8" t="inlineStr">
@@ -18439,18 +18501,18 @@
         <f>IF(SUM(D6:AB6)=0,"",SUM(D6:AB6)/2)</f>
         <v/>
       </c>
-      <c r="AE6" s="47" t="inlineStr"/>
-      <c r="AF6" s="47" t="inlineStr">
+      <c r="AE6" s="49" t="n"/>
+      <c r="AF6" s="48" t="inlineStr">
         <is>
           <t>一面（到面）</t>
         </is>
       </c>
       <c r="AG6" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC46,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" s="40">
       <c r="A7" s="44" t="n"/>
       <c r="B7" s="44" t="n"/>
       <c r="C7" s="19" t="inlineStr">
@@ -18499,18 +18561,18 @@
         <f>IF(SUM(D7:AB7)=0,"",SUM(D7:AB7)/2)</f>
         <v/>
       </c>
-      <c r="AE7" s="47" t="inlineStr"/>
+      <c r="AE7" s="49" t="n"/>
       <c r="AF7" s="47" t="inlineStr">
         <is>
           <t>终面</t>
         </is>
       </c>
       <c r="AG7" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC47,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="8" s="40">
       <c r="A8" s="44" t="n"/>
       <c r="B8" s="44" t="n"/>
       <c r="C8" s="19" t="inlineStr">
@@ -18559,18 +18621,18 @@
         <f>IF(SUM(D8:AB8)=0,"",SUM(D8:AB8)/2)</f>
         <v/>
       </c>
-      <c r="AE8" s="47" t="inlineStr"/>
+      <c r="AE8" s="49" t="n"/>
       <c r="AF8" s="47" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
       </c>
       <c r="AG8" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC48,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9" s="40">
       <c r="A9" s="44" t="n"/>
       <c r="B9" s="44" t="n"/>
       <c r="C9" s="8" t="inlineStr">
@@ -18619,18 +18681,18 @@
         <f>IF(SUM(D9:AB9)=0,"",SUM(D9:AB9)/2)</f>
         <v/>
       </c>
-      <c r="AE9" s="47" t="inlineStr"/>
-      <c r="AF9" s="47" t="inlineStr">
+      <c r="AE9" s="49" t="n"/>
+      <c r="AF9" s="48" t="inlineStr">
         <is>
           <t>入职</t>
         </is>
       </c>
       <c r="AG9" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC49,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="10" s="40">
       <c r="A10" s="44" t="n"/>
       <c r="B10" s="44" t="n"/>
       <c r="C10" s="19" t="inlineStr">
@@ -18679,18 +18741,18 @@
         <f>IF(SUM(D10:AB10)=0,"",SUM(D10:AB10)/2)</f>
         <v/>
       </c>
-      <c r="AE10" s="47" t="inlineStr"/>
+      <c r="AE10" s="49" t="n"/>
       <c r="AF10" s="47" t="inlineStr">
         <is>
           <t>转入</t>
         </is>
       </c>
       <c r="AG10" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC50,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="11" s="40">
       <c r="A11" s="44" t="n"/>
       <c r="B11" s="44" t="n"/>
       <c r="C11" s="19" t="inlineStr">
@@ -18739,18 +18801,18 @@
         <f>IFERROR(LOOKUP(1,0/(D11:AA11&lt;&gt;""),D11:AA11),"")</f>
         <v/>
       </c>
-      <c r="AE11" s="47" t="inlineStr"/>
+      <c r="AE11" s="49" t="n"/>
       <c r="AF11" s="47" t="inlineStr">
         <is>
           <t>在职</t>
         </is>
       </c>
       <c r="AG11" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC51,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="12" s="40">
       <c r="A12" s="43" t="n"/>
       <c r="B12" s="43" t="n"/>
       <c r="C12" s="8" t="inlineStr">
@@ -18799,18 +18861,18 @@
         <f>IF(SUM(D12:AB12)=0,"",SUM(D12:AB12)/2)</f>
         <v/>
       </c>
-      <c r="AE12" s="47" t="inlineStr"/>
-      <c r="AF12" s="47" t="inlineStr">
+      <c r="AE12" s="50" t="n"/>
+      <c r="AF12" s="48" t="inlineStr">
         <is>
           <t>离职</t>
         </is>
       </c>
       <c r="AG12" s="47">
-        <f>SUM(AC43,AC44,AC45,AC46,AC47,AC48,AC49,AC50,AC51,AC52,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC52,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="13" s="40">
       <c r="A13" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -18889,20 +18951,20 @@
       </c>
       <c r="AE13" s="47" t="inlineStr">
         <is>
-          <t>安图特</t>
-        </is>
-      </c>
-      <c r="AF13" s="47" t="inlineStr">
+          <t>洋葱学院</t>
+        </is>
+      </c>
+      <c r="AF13" s="48" t="inlineStr">
         <is>
           <t>需求</t>
         </is>
       </c>
       <c r="AG13" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC33,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="14" s="40">
       <c r="A14" s="44" t="n"/>
       <c r="B14" s="44" t="n"/>
       <c r="C14" s="19" t="inlineStr">
@@ -18955,18 +19017,18 @@
         <f>IF(SUM(D14:AB14)=0,"",SUM(D14:AB14)/2)</f>
         <v/>
       </c>
-      <c r="AE14" s="47" t="inlineStr"/>
+      <c r="AE14" s="49" t="n"/>
       <c r="AF14" s="47" t="inlineStr">
         <is>
           <t>推荐简历</t>
         </is>
       </c>
       <c r="AG14" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC34,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="15" s="40">
       <c r="A15" s="44" t="n"/>
       <c r="B15" s="44" t="n"/>
       <c r="C15" s="19" t="inlineStr">
@@ -19017,18 +19079,18 @@
         <f>IF(SUM(D15:AB15)=0,"",SUM(D15:AB15)/2)</f>
         <v/>
       </c>
-      <c r="AE15" s="47" t="inlineStr"/>
+      <c r="AE15" s="49" t="n"/>
       <c r="AF15" s="47" t="inlineStr">
         <is>
           <t>有效简历数</t>
         </is>
       </c>
       <c r="AG15" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC35,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="16" s="40">
       <c r="A16" s="44" t="n"/>
       <c r="B16" s="44" t="n"/>
       <c r="C16" s="8" t="inlineStr">
@@ -19077,18 +19139,18 @@
         <f>IF(SUM(D16:AB16)=0,"",SUM(D16:AB16)/2)</f>
         <v/>
       </c>
-      <c r="AE16" s="47" t="inlineStr"/>
-      <c r="AF16" s="47" t="inlineStr">
+      <c r="AE16" s="49" t="n"/>
+      <c r="AF16" s="48" t="inlineStr">
         <is>
           <t>一面（到面）</t>
         </is>
       </c>
       <c r="AG16" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC36,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="17" s="40">
       <c r="A17" s="44" t="n"/>
       <c r="B17" s="44" t="n"/>
       <c r="C17" s="19" t="inlineStr">
@@ -19137,18 +19199,18 @@
         <f>IF(SUM(D17:AB17)=0,"",SUM(D17:AB17)/2)</f>
         <v/>
       </c>
-      <c r="AE17" s="47" t="inlineStr"/>
+      <c r="AE17" s="49" t="n"/>
       <c r="AF17" s="47" t="inlineStr">
         <is>
           <t>终面</t>
         </is>
       </c>
       <c r="AG17" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC37,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="18" s="40">
       <c r="A18" s="44" t="n"/>
       <c r="B18" s="44" t="n"/>
       <c r="C18" s="19" t="inlineStr">
@@ -19197,18 +19259,18 @@
         <f>IF(SUM(D18:AB18)=0,"",SUM(D18:AB18)/2)</f>
         <v/>
       </c>
-      <c r="AE18" s="47" t="inlineStr"/>
+      <c r="AE18" s="49" t="n"/>
       <c r="AF18" s="47" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
       </c>
       <c r="AG18" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC38,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="19" s="40">
       <c r="A19" s="44" t="n"/>
       <c r="B19" s="44" t="n"/>
       <c r="C19" s="8" t="inlineStr">
@@ -19257,18 +19319,18 @@
         <f>IF(SUM(D19:AB19)=0,"",SUM(D19:AB19)/2)</f>
         <v/>
       </c>
-      <c r="AE19" s="47" t="inlineStr"/>
-      <c r="AF19" s="47" t="inlineStr">
+      <c r="AE19" s="49" t="n"/>
+      <c r="AF19" s="48" t="inlineStr">
         <is>
           <t>入职</t>
         </is>
       </c>
       <c r="AG19" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC39,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="20" s="40">
       <c r="A20" s="44" t="n"/>
       <c r="B20" s="44" t="n"/>
       <c r="C20" s="19" t="inlineStr">
@@ -19317,18 +19379,18 @@
         <f>IF(SUM(D20:AB20)=0,"",SUM(D20:AB20)/2)</f>
         <v/>
       </c>
-      <c r="AE20" s="47" t="inlineStr"/>
+      <c r="AE20" s="49" t="n"/>
       <c r="AF20" s="47" t="inlineStr">
         <is>
           <t>转入</t>
         </is>
       </c>
       <c r="AG20" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC40,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="21" s="40">
       <c r="A21" s="44" t="n"/>
       <c r="B21" s="44" t="n"/>
       <c r="C21" s="19" t="inlineStr">
@@ -19377,18 +19439,18 @@
         <f>IFERROR(LOOKUP(1,0/(D21:AA21&lt;&gt;""),D21:AA21),"")</f>
         <v/>
       </c>
-      <c r="AE21" s="47" t="inlineStr"/>
+      <c r="AE21" s="49" t="n"/>
       <c r="AF21" s="47" t="inlineStr">
         <is>
           <t>在职</t>
         </is>
       </c>
       <c r="AG21" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC41,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="22" s="40">
       <c r="A22" s="43" t="n"/>
       <c r="B22" s="43" t="n"/>
       <c r="C22" s="8" t="inlineStr">
@@ -19437,18 +19499,18 @@
         <f>IF(SUM(D22:AB22)=0,"",SUM(D22:AB22)/2)</f>
         <v/>
       </c>
-      <c r="AE22" s="47" t="inlineStr"/>
-      <c r="AF22" s="47" t="inlineStr">
+      <c r="AE22" s="50" t="n"/>
+      <c r="AF22" s="48" t="inlineStr">
         <is>
           <t>离职</t>
         </is>
       </c>
       <c r="AG22" s="47">
-        <f>SUM(AC3,AC4,AC5,AC6,AC7,AC8,AC9,AC10,AC11,AC12,AC13,AC14,AC15,AC16,AC17,AC18,AC19,AC20,AC21,AC22,AC23,AC24,AC25,AC26,AC27,AC28,AC29,AC30,AC31,AC32,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC42,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="23" s="40">
       <c r="A23" s="19" t="inlineStr">
         <is>
           <t>安图特</t>
@@ -19539,20 +19601,20 @@
       </c>
       <c r="AE23" s="47" t="inlineStr">
         <is>
-          <t>洋葱学院</t>
-        </is>
-      </c>
-      <c r="AF23" s="47" t="inlineStr">
+          <t>安图特</t>
+        </is>
+      </c>
+      <c r="AF23" s="48" t="inlineStr">
         <is>
           <t>需求</t>
         </is>
       </c>
       <c r="AG23" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC3,AC13,AC23,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="24" s="40">
       <c r="A24" s="44" t="n"/>
       <c r="B24" s="44" t="n"/>
       <c r="C24" s="19" t="inlineStr">
@@ -19609,18 +19671,18 @@
         <f>IF(SUM(D24:AB24)=0,"",SUM(D24:AB24)/2)</f>
         <v/>
       </c>
-      <c r="AE24" s="47" t="inlineStr"/>
+      <c r="AE24" s="49" t="n"/>
       <c r="AF24" s="47" t="inlineStr">
         <is>
           <t>推荐简历</t>
         </is>
       </c>
       <c r="AG24" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC4,AC14,AC24,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="25" s="40">
       <c r="A25" s="44" t="n"/>
       <c r="B25" s="44" t="n"/>
       <c r="C25" s="19" t="inlineStr">
@@ -19673,18 +19735,18 @@
         <f>IF(SUM(D25:AB25)=0,"",SUM(D25:AB25)/2)</f>
         <v/>
       </c>
-      <c r="AE25" s="47" t="inlineStr"/>
+      <c r="AE25" s="49" t="n"/>
       <c r="AF25" s="47" t="inlineStr">
         <is>
           <t>有效简历数</t>
         </is>
       </c>
       <c r="AG25" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC5,AC15,AC25,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="26" s="40">
       <c r="A26" s="44" t="n"/>
       <c r="B26" s="44" t="n"/>
       <c r="C26" s="8" t="inlineStr">
@@ -19737,18 +19799,18 @@
         <f>IF(SUM(D26:AB26)=0,"",SUM(D26:AB26)/2)</f>
         <v/>
       </c>
-      <c r="AE26" s="47" t="inlineStr"/>
-      <c r="AF26" s="47" t="inlineStr">
+      <c r="AE26" s="49" t="n"/>
+      <c r="AF26" s="48" t="inlineStr">
         <is>
           <t>一面（到面）</t>
         </is>
       </c>
       <c r="AG26" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC6,AC16,AC26,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="27" s="40">
       <c r="A27" s="44" t="n"/>
       <c r="B27" s="44" t="n"/>
       <c r="C27" s="19" t="inlineStr">
@@ -19799,18 +19861,18 @@
         <f>IF(SUM(D27:AB27)=0,"",SUM(D27:AB27)/2)</f>
         <v/>
       </c>
-      <c r="AE27" s="47" t="inlineStr"/>
+      <c r="AE27" s="49" t="n"/>
       <c r="AF27" s="47" t="inlineStr">
         <is>
           <t>终面</t>
         </is>
       </c>
       <c r="AG27" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC7,AC17,AC27,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="28" s="40">
       <c r="A28" s="44" t="n"/>
       <c r="B28" s="44" t="n"/>
       <c r="C28" s="19" t="inlineStr">
@@ -19859,18 +19921,18 @@
         <f>IF(SUM(D28:AB28)=0,"",SUM(D28:AB28)/2)</f>
         <v/>
       </c>
-      <c r="AE28" s="47" t="inlineStr"/>
+      <c r="AE28" s="49" t="n"/>
       <c r="AF28" s="47" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
       </c>
       <c r="AG28" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC8,AC18,AC28,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="29" s="40">
       <c r="A29" s="44" t="n"/>
       <c r="B29" s="44" t="n"/>
       <c r="C29" s="8" t="inlineStr">
@@ -19919,18 +19981,18 @@
         <f>IF(SUM(D29:AB29)=0,"",SUM(D29:AB29)/2)</f>
         <v/>
       </c>
-      <c r="AE29" s="47" t="inlineStr"/>
-      <c r="AF29" s="47" t="inlineStr">
+      <c r="AE29" s="49" t="n"/>
+      <c r="AF29" s="48" t="inlineStr">
         <is>
           <t>入职</t>
         </is>
       </c>
       <c r="AG29" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC9,AC19,AC29,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="30" s="40">
       <c r="A30" s="44" t="n"/>
       <c r="B30" s="44" t="n"/>
       <c r="C30" s="19" t="inlineStr">
@@ -19979,18 +20041,18 @@
         <f>IF(SUM(D30:AB30)=0,"",SUM(D30:AB30)/2)</f>
         <v/>
       </c>
-      <c r="AE30" s="47" t="inlineStr"/>
+      <c r="AE30" s="49" t="n"/>
       <c r="AF30" s="47" t="inlineStr">
         <is>
           <t>转入</t>
         </is>
       </c>
       <c r="AG30" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC10,AC20,AC30,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="31" s="40">
       <c r="A31" s="44" t="n"/>
       <c r="B31" s="44" t="n"/>
       <c r="C31" s="19" t="inlineStr">
@@ -20039,18 +20101,18 @@
         <f>IFERROR(LOOKUP(1,0/(D31:AA31&lt;&gt;""),D31:AA31),"")</f>
         <v/>
       </c>
-      <c r="AE31" s="47" t="inlineStr"/>
+      <c r="AE31" s="49" t="n"/>
       <c r="AF31" s="47" t="inlineStr">
         <is>
           <t>在职</t>
         </is>
       </c>
       <c r="AG31" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC11,AC21,AC31,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="32" s="40">
       <c r="A32" s="43" t="n"/>
       <c r="B32" s="43" t="n"/>
       <c r="C32" s="8" t="inlineStr">
@@ -20099,18 +20161,18 @@
         <f>IF(SUM(D32:AB32)=0,"",SUM(D32:AB32)/2)</f>
         <v/>
       </c>
-      <c r="AE32" s="47" t="inlineStr"/>
-      <c r="AF32" s="47" t="inlineStr">
+      <c r="AE32" s="50" t="n"/>
+      <c r="AF32" s="48" t="inlineStr">
         <is>
           <t>离职</t>
         </is>
       </c>
       <c r="AG32" s="47">
-        <f>SUM(AC33,AC34,AC35,AC36,AC37,AC38,AC39,AC40,AC41,AC42,)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" s="40">
+        <f>SUM(AC12,AC22,AC32,)</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="33" s="40">
       <c r="A33" s="19" t="inlineStr">
         <is>
           <t>洋葱学院</t>
@@ -20199,11 +20261,11 @@
         <f>IFERROR(LOOKUP(1,0/(D33:AA33&lt;&gt;""),D33:AA33),"")</f>
         <v/>
       </c>
-      <c r="AE33" s="47" t="inlineStr"/>
-      <c r="AF33" s="47" t="inlineStr"/>
-      <c r="AG33" s="47" t="inlineStr"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1" s="40">
+      <c r="AE33" s="51" t="inlineStr"/>
+      <c r="AF33" s="51" t="inlineStr"/>
+      <c r="AG33" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="34" s="40">
       <c r="A34" s="44" t="n"/>
       <c r="B34" s="44" t="n"/>
       <c r="C34" s="19" t="inlineStr">
@@ -20262,11 +20324,11 @@
         <f>IF(SUM(D34:AB34)=0,"",SUM(D34:AB34)/2)</f>
         <v/>
       </c>
-      <c r="AE34" s="47" t="inlineStr"/>
-      <c r="AF34" s="47" t="inlineStr"/>
-      <c r="AG34" s="47" t="inlineStr"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" s="40">
+      <c r="AE34" s="51" t="inlineStr"/>
+      <c r="AF34" s="51" t="inlineStr"/>
+      <c r="AG34" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="35" s="40">
       <c r="A35" s="44" t="n"/>
       <c r="B35" s="44" t="n"/>
       <c r="C35" s="19" t="inlineStr">
@@ -20315,11 +20377,11 @@
         <f>IF(SUM(D35:AB35)=0,"",SUM(D35:AB35)/2)</f>
         <v/>
       </c>
-      <c r="AE35" s="47" t="inlineStr"/>
-      <c r="AF35" s="47" t="inlineStr"/>
-      <c r="AG35" s="47" t="inlineStr"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1" s="40">
+      <c r="AE35" s="51" t="inlineStr"/>
+      <c r="AF35" s="51" t="inlineStr"/>
+      <c r="AG35" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="36" s="40">
       <c r="A36" s="44" t="n"/>
       <c r="B36" s="44" t="n"/>
       <c r="C36" s="8" t="inlineStr">
@@ -20372,11 +20434,11 @@
         <f>IF(SUM(D36:AB36)=0,"",SUM(D36:AB36)/2)</f>
         <v/>
       </c>
-      <c r="AE36" s="47" t="inlineStr"/>
-      <c r="AF36" s="47" t="inlineStr"/>
-      <c r="AG36" s="47" t="inlineStr"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1" s="40">
+      <c r="AE36" s="51" t="inlineStr"/>
+      <c r="AF36" s="51" t="inlineStr"/>
+      <c r="AG36" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="37" s="40">
       <c r="A37" s="44" t="n"/>
       <c r="B37" s="44" t="n"/>
       <c r="C37" s="19" t="inlineStr">
@@ -20425,11 +20487,11 @@
         <f>IF(SUM(D37:AB37)=0,"",SUM(D37:AB37)/2)</f>
         <v/>
       </c>
-      <c r="AE37" s="47" t="inlineStr"/>
-      <c r="AF37" s="47" t="inlineStr"/>
-      <c r="AG37" s="47" t="inlineStr"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1" s="40">
+      <c r="AE37" s="51" t="inlineStr"/>
+      <c r="AF37" s="51" t="inlineStr"/>
+      <c r="AG37" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="38" s="40">
       <c r="A38" s="44" t="n"/>
       <c r="B38" s="44" t="n"/>
       <c r="C38" s="19" t="inlineStr">
@@ -20480,11 +20542,11 @@
         <f>IF(SUM(D38:AB38)=0,"",SUM(D38:AB38)/2)</f>
         <v/>
       </c>
-      <c r="AE38" s="47" t="inlineStr"/>
-      <c r="AF38" s="47" t="inlineStr"/>
-      <c r="AG38" s="47" t="inlineStr"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1" s="40">
+      <c r="AE38" s="51" t="inlineStr"/>
+      <c r="AF38" s="51" t="inlineStr"/>
+      <c r="AG38" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="39" s="40">
       <c r="A39" s="44" t="n"/>
       <c r="B39" s="44" t="n"/>
       <c r="C39" s="8" t="inlineStr">
@@ -20533,11 +20595,11 @@
         <f>IF(SUM(D39:AB39)=0,"",SUM(D39:AB39)/2)</f>
         <v/>
       </c>
-      <c r="AE39" s="47" t="inlineStr"/>
-      <c r="AF39" s="47" t="inlineStr"/>
-      <c r="AG39" s="47" t="inlineStr"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1" s="40">
+      <c r="AE39" s="51" t="inlineStr"/>
+      <c r="AF39" s="51" t="inlineStr"/>
+      <c r="AG39" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="40" s="40">
       <c r="A40" s="44" t="n"/>
       <c r="B40" s="44" t="n"/>
       <c r="C40" s="19" t="inlineStr">
@@ -20586,11 +20648,11 @@
         <f>IF(SUM(D40:AB40)=0,"",SUM(D40:AB40)/2)</f>
         <v/>
       </c>
-      <c r="AE40" s="47" t="inlineStr"/>
-      <c r="AF40" s="47" t="inlineStr"/>
-      <c r="AG40" s="47" t="inlineStr"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1" s="40">
+      <c r="AE40" s="51" t="inlineStr"/>
+      <c r="AF40" s="51" t="inlineStr"/>
+      <c r="AG40" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="41" s="40">
       <c r="A41" s="44" t="n"/>
       <c r="B41" s="44" t="n"/>
       <c r="C41" s="19" t="inlineStr">
@@ -20639,11 +20701,11 @@
         <f>IFERROR(LOOKUP(1,0/(D41:AA41&lt;&gt;""),D41:AA41),"")</f>
         <v/>
       </c>
-      <c r="AE41" s="47" t="inlineStr"/>
-      <c r="AF41" s="47" t="inlineStr"/>
-      <c r="AG41" s="47" t="inlineStr"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1" s="40">
+      <c r="AE41" s="51" t="inlineStr"/>
+      <c r="AF41" s="51" t="inlineStr"/>
+      <c r="AG41" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="42" s="40">
       <c r="A42" s="43" t="n"/>
       <c r="B42" s="43" t="n"/>
       <c r="C42" s="8" t="inlineStr">
@@ -20692,11 +20754,11 @@
         <f>IF(SUM(D42:AB42)=0,"",SUM(D42:AB42)/2)</f>
         <v/>
       </c>
-      <c r="AE42" s="47" t="inlineStr"/>
-      <c r="AF42" s="47" t="inlineStr"/>
-      <c r="AG42" s="47" t="inlineStr"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1" s="40">
+      <c r="AE42" s="51" t="inlineStr"/>
+      <c r="AF42" s="51" t="inlineStr"/>
+      <c r="AG42" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="43" s="40">
       <c r="A43" s="19" t="inlineStr">
         <is>
           <t>航天科工</t>
@@ -20773,11 +20835,11 @@
         <f>IFERROR(LOOKUP(1,0/(D43:AA43&lt;&gt;""),D43:AA43),"")</f>
         <v/>
       </c>
-      <c r="AE43" s="47" t="inlineStr"/>
-      <c r="AF43" s="47" t="inlineStr"/>
-      <c r="AG43" s="47" t="inlineStr"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1" s="40">
+      <c r="AE43" s="51" t="inlineStr"/>
+      <c r="AF43" s="51" t="inlineStr"/>
+      <c r="AG43" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="44" s="40">
       <c r="A44" s="44" t="n"/>
       <c r="B44" s="44" t="n"/>
       <c r="C44" s="19" t="inlineStr">
@@ -20826,11 +20888,11 @@
         <f>IF(SUM(D44:AB44)=0,"",SUM(D44:AB44)/2)</f>
         <v/>
       </c>
-      <c r="AE44" s="47" t="inlineStr"/>
-      <c r="AF44" s="47" t="inlineStr"/>
-      <c r="AG44" s="47" t="inlineStr"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1" s="40">
+      <c r="AE44" s="51" t="inlineStr"/>
+      <c r="AF44" s="51" t="inlineStr"/>
+      <c r="AG44" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="45" s="40">
       <c r="A45" s="44" t="n"/>
       <c r="B45" s="44" t="n"/>
       <c r="C45" s="19" t="inlineStr">
@@ -20879,11 +20941,11 @@
         <f>IF(SUM(D45:AB45)=0,"",SUM(D45:AB45)/2)</f>
         <v/>
       </c>
-      <c r="AE45" s="47" t="inlineStr"/>
-      <c r="AF45" s="47" t="inlineStr"/>
-      <c r="AG45" s="47" t="inlineStr"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1" s="40">
+      <c r="AE45" s="51" t="inlineStr"/>
+      <c r="AF45" s="51" t="inlineStr"/>
+      <c r="AG45" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="46" s="40">
       <c r="A46" s="44" t="n"/>
       <c r="B46" s="44" t="n"/>
       <c r="C46" s="8" t="inlineStr">
@@ -20932,11 +20994,11 @@
         <f>IF(SUM(D46:AB46)=0,"",SUM(D46:AB46)/2)</f>
         <v/>
       </c>
-      <c r="AE46" s="47" t="inlineStr"/>
-      <c r="AF46" s="47" t="inlineStr"/>
-      <c r="AG46" s="47" t="inlineStr"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1" s="40">
+      <c r="AE46" s="51" t="inlineStr"/>
+      <c r="AF46" s="51" t="inlineStr"/>
+      <c r="AG46" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="47" s="40">
       <c r="A47" s="44" t="n"/>
       <c r="B47" s="44" t="n"/>
       <c r="C47" s="19" t="inlineStr">
@@ -20985,11 +21047,11 @@
         <f>IF(SUM(D47:AB47)=0,"",SUM(D47:AB47)/2)</f>
         <v/>
       </c>
-      <c r="AE47" s="47" t="inlineStr"/>
-      <c r="AF47" s="47" t="inlineStr"/>
-      <c r="AG47" s="47" t="inlineStr"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1" s="40">
+      <c r="AE47" s="51" t="inlineStr"/>
+      <c r="AF47" s="51" t="inlineStr"/>
+      <c r="AG47" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="48" s="40">
       <c r="A48" s="44" t="n"/>
       <c r="B48" s="44" t="n"/>
       <c r="C48" s="19" t="inlineStr">
@@ -21038,11 +21100,11 @@
         <f>IF(SUM(D48:AB48)=0,"",SUM(D48:AB48)/2)</f>
         <v/>
       </c>
-      <c r="AE48" s="47" t="inlineStr"/>
-      <c r="AF48" s="47" t="inlineStr"/>
-      <c r="AG48" s="47" t="inlineStr"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1" s="40">
+      <c r="AE48" s="51" t="inlineStr"/>
+      <c r="AF48" s="51" t="inlineStr"/>
+      <c r="AG48" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="49" s="40">
       <c r="A49" s="44" t="n"/>
       <c r="B49" s="44" t="n"/>
       <c r="C49" s="8" t="inlineStr">
@@ -21091,11 +21153,11 @@
         <f>IF(SUM(D49:AB49)=0,"",SUM(D49:AB49)/2)</f>
         <v/>
       </c>
-      <c r="AE49" s="47" t="inlineStr"/>
-      <c r="AF49" s="47" t="inlineStr"/>
-      <c r="AG49" s="47" t="inlineStr"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1" s="40">
+      <c r="AE49" s="51" t="inlineStr"/>
+      <c r="AF49" s="51" t="inlineStr"/>
+      <c r="AG49" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="50" s="40">
       <c r="A50" s="44" t="n"/>
       <c r="B50" s="44" t="n"/>
       <c r="C50" s="19" t="inlineStr">
@@ -21144,11 +21206,11 @@
         <f>IF(SUM(D50:AB50)=0,"",SUM(D50:AB50)/2)</f>
         <v/>
       </c>
-      <c r="AE50" s="47" t="inlineStr"/>
-      <c r="AF50" s="47" t="inlineStr"/>
-      <c r="AG50" s="47" t="inlineStr"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1" s="40">
+      <c r="AE50" s="51" t="inlineStr"/>
+      <c r="AF50" s="51" t="inlineStr"/>
+      <c r="AG50" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="51" s="40">
       <c r="A51" s="44" t="n"/>
       <c r="B51" s="44" t="n"/>
       <c r="C51" s="19" t="inlineStr">
@@ -21197,11 +21259,11 @@
         <f>IFERROR(LOOKUP(1,0/(D51:AA51&lt;&gt;""),D51:AA51),"")</f>
         <v/>
       </c>
-      <c r="AE51" s="47" t="inlineStr"/>
-      <c r="AF51" s="47" t="inlineStr"/>
-      <c r="AG51" s="47" t="inlineStr"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1" s="40">
+      <c r="AE51" s="51" t="inlineStr"/>
+      <c r="AF51" s="51" t="inlineStr"/>
+      <c r="AG51" s="51" t="inlineStr"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="52" s="40">
       <c r="A52" s="43" t="n"/>
       <c r="B52" s="43" t="n"/>
       <c r="C52" s="8" t="inlineStr">
@@ -21250,9 +21312,9 @@
         <f>IF(SUM(D52:AB52)=0,"",SUM(D52:AB52)/2)</f>
         <v/>
       </c>
-      <c r="AE52" s="47" t="inlineStr"/>
-      <c r="AF52" s="47" t="inlineStr"/>
-      <c r="AG52" s="47" t="inlineStr"/>
+      <c r="AE52" s="51" t="inlineStr"/>
+      <c r="AF52" s="51" t="inlineStr"/>
+      <c r="AG52" s="51" t="inlineStr"/>
     </row>
     <row r="53"/>
     <row r="54"/>
@@ -21264,7 +21326,7 @@
     <row r="60"/>
     <row r="61"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="A23:A32"/>
@@ -21286,13 +21348,16 @@
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AE3:AE12"/>
+    <mergeCell ref="AE13:AE22"/>
+    <mergeCell ref="AE23:AE32"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AG52">
-    <cfRule type="expression" priority="1">
+    <cfRule priority="1" type="expression">
       <formula>CELL("row")=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>